--- a/wine_diplo_2025_14Jan.xlsx
+++ b/wine_diplo_2025_14Jan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugoruizverastegui/Documents/perso github/wine_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C366635-A013-804E-B511-DD2527BFADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A9C4432-9068-A64A-A806-5439E98C0797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{8F75DC4C-FA27-2B45-8F56-FCDF449674D9}"/>
   </bookViews>
@@ -10240,8 +10240,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10621,7 +10621,7 @@
   <dimension ref="A1:P768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10634,10 +10634,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3227</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3228</v>
       </c>
       <c r="E1" t="s">
@@ -10684,7 +10684,7 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>39.99</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -10736,7 +10736,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -10788,7 +10788,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>34.299999999999997</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -10840,7 +10840,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>111.7</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -10892,7 +10892,7 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1487.5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -10944,7 +10944,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>350.45</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -10996,7 +10996,7 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>720.05</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -11048,7 +11048,7 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>1011.8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -11100,7 +11100,7 @@
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>189.45</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -11152,7 +11152,7 @@
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>24.55</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -11204,7 +11204,7 @@
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -11256,7 +11256,7 @@
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>12.6</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -11308,7 +11308,7 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>22.8</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -11360,7 +11360,7 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>42.95</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -11412,7 +11412,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>71.599999999999994</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -11464,7 +11464,7 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>67.7</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -11516,7 +11516,7 @@
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>109.45</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -11568,7 +11568,7 @@
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>14.8</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -11620,7 +11620,7 @@
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>23.55</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -11672,7 +11672,7 @@
       <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>38.35</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -11724,7 +11724,7 @@
       <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>44.8</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -11776,7 +11776,7 @@
       <c r="B23">
         <v>9</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>438.05</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -11828,7 +11828,7 @@
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>71.400000000000006</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -11880,7 +11880,7 @@
       <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>25.5</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -11932,7 +11932,7 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>748.15</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -11984,7 +11984,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>149.44999999999999</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -12036,7 +12036,7 @@
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>27.1</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -12088,7 +12088,7 @@
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>36.450000000000003</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -12140,7 +12140,7 @@
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>28.05</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -12192,7 +12192,7 @@
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>179.99</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -12244,7 +12244,7 @@
       <c r="B32">
         <v>6</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>23.25</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -12296,7 +12296,7 @@
       <c r="B33">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>461.55</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -12348,7 +12348,7 @@
       <c r="B34">
         <v>8</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>78.2</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -12400,7 +12400,7 @@
       <c r="B35">
         <v>9</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>39.549999999999997</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -12452,7 +12452,7 @@
       <c r="B36">
         <v>10</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <v>671.15</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -12504,7 +12504,7 @@
       <c r="B37">
         <v>11</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <v>92.5</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -12556,7 +12556,7 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>445.4</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -12608,7 +12608,7 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>2837.6</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -12660,7 +12660,7 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>11.5</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -12712,7 +12712,7 @@
       <c r="B41">
         <v>3</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>262.85000000000002</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -12764,7 +12764,7 @@
       <c r="B42">
         <v>4</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>766.25</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -12816,7 +12816,7 @@
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>56.55</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -12868,7 +12868,7 @@
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>700.9</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -12920,7 +12920,7 @@
       <c r="B45">
         <v>7</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>23.3</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -12972,7 +12972,7 @@
       <c r="B46">
         <v>8</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="4">
         <v>17.2</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -13024,7 +13024,7 @@
       <c r="B47">
         <v>9</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="4">
         <v>31.15</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -13076,7 +13076,7 @@
       <c r="B48">
         <v>10</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="4">
         <v>12.95</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -13128,7 +13128,7 @@
       <c r="B49">
         <v>11</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="4">
         <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -13180,7 +13180,7 @@
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="4">
         <v>11.1</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -13232,7 +13232,7 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="4">
         <v>72</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -13284,7 +13284,7 @@
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="4">
         <v>63.8</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -13336,7 +13336,7 @@
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="4">
         <v>10.15</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -13388,7 +13388,7 @@
       <c r="B54">
         <v>4</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="4">
         <v>12.55</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -13440,7 +13440,7 @@
       <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="4">
         <v>43.85</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -13492,7 +13492,7 @@
       <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="4">
         <v>33.65</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -13544,7 +13544,7 @@
       <c r="B57">
         <v>7</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="4">
         <v>31.95</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -13596,7 +13596,7 @@
       <c r="B58">
         <v>8</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="4">
         <v>20.85</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -13648,7 +13648,7 @@
       <c r="B59">
         <v>9</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="4">
         <v>12.2</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -13700,7 +13700,7 @@
       <c r="B60">
         <v>10</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="4">
         <v>8.6999999999999993</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -13752,7 +13752,7 @@
       <c r="B61">
         <v>11</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="4">
         <v>10.050000000000001</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -13804,7 +13804,7 @@
       <c r="B62">
         <v>0</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="4">
         <v>10.75</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -13856,7 +13856,7 @@
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>4123</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -13908,7 +13908,7 @@
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="4">
         <v>793.8</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -13960,7 +13960,7 @@
       <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="4">
         <v>183.95</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -14012,7 +14012,7 @@
       <c r="B66">
         <v>4</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="4">
         <v>54.5</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -14064,7 +14064,7 @@
       <c r="B67">
         <v>5</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="4">
         <v>43</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -14116,7 +14116,7 @@
       <c r="B68">
         <v>6</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="4">
         <v>45.9</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -14168,7 +14168,7 @@
       <c r="B69">
         <v>7</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="4">
         <v>984.4</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -14220,7 +14220,7 @@
       <c r="B70">
         <v>8</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="4">
         <v>27.7</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -14272,7 +14272,7 @@
       <c r="B71">
         <v>9</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="4">
         <v>21.35</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -14324,7 +14324,7 @@
       <c r="B72">
         <v>10</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="4">
         <v>59.05</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -14376,7 +14376,7 @@
       <c r="B73">
         <v>11</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="4">
         <v>82.3</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -14428,7 +14428,7 @@
       <c r="B74">
         <v>0</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="4">
         <v>52.25</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -14480,7 +14480,7 @@
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="4">
         <v>17.899999999999999</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -14532,7 +14532,7 @@
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="4">
         <v>56.7</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -14584,7 +14584,7 @@
       <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="4">
         <v>45.75</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -14636,7 +14636,7 @@
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="4">
         <v>14.75</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -14688,7 +14688,7 @@
       <c r="B79">
         <v>5</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="4">
         <v>48.7</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -14740,7 +14740,7 @@
       <c r="B80">
         <v>6</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="4">
         <v>12.4</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -14792,7 +14792,7 @@
       <c r="B81">
         <v>7</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="4">
         <v>30.35</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -14844,7 +14844,7 @@
       <c r="B82">
         <v>8</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="4">
         <v>49.4</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -14896,7 +14896,7 @@
       <c r="B83">
         <v>9</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="4">
         <v>12.15</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -14948,7 +14948,7 @@
       <c r="B84">
         <v>10</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="4">
         <v>10.7</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -15000,7 +15000,7 @@
       <c r="B85">
         <v>11</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -15052,7 +15052,7 @@
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -15104,7 +15104,7 @@
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="4">
         <v>21.05</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -15156,7 +15156,7 @@
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="4">
         <v>14.7</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -15208,7 +15208,7 @@
       <c r="B89">
         <v>3</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="4">
         <v>16.350000000000001</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -15260,7 +15260,7 @@
       <c r="B90">
         <v>4</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="4">
         <v>164.55</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -15312,7 +15312,7 @@
       <c r="B91">
         <v>5</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="4">
         <v>40.049999999999997</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -15364,7 +15364,7 @@
       <c r="B92">
         <v>6</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="4">
         <v>41.99</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -15416,7 +15416,7 @@
       <c r="B93">
         <v>7</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="4">
         <v>194.1</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -15468,7 +15468,7 @@
       <c r="B94">
         <v>8</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="4">
         <v>51.75</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -15520,7 +15520,7 @@
       <c r="B95">
         <v>9</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="4">
         <v>67.25</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -15572,7 +15572,7 @@
       <c r="B96">
         <v>10</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="4">
         <v>16.7</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -15624,7 +15624,7 @@
       <c r="B97">
         <v>11</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="4">
         <v>25.6</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -15676,7 +15676,7 @@
       <c r="B98">
         <v>0</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="4">
         <v>46.2</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -15728,7 +15728,7 @@
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="4">
         <v>20.05</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -15780,7 +15780,7 @@
       <c r="B100">
         <v>2</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="4">
         <v>28.4</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -15832,7 +15832,7 @@
       <c r="B101">
         <v>3</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="4">
         <v>4385.5</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -15884,7 +15884,7 @@
       <c r="B102">
         <v>4</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="4">
         <v>1811.25</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -15936,7 +15936,7 @@
       <c r="B103">
         <v>5</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="4">
         <v>22.1</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -15988,7 +15988,7 @@
       <c r="B104">
         <v>6</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="4">
         <v>511.9</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -16040,7 +16040,7 @@
       <c r="B105">
         <v>7</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="4">
         <v>3083.15</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -16092,7 +16092,7 @@
       <c r="B106">
         <v>8</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="4">
         <v>28.45</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -16144,7 +16144,7 @@
       <c r="B107">
         <v>9</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="4">
         <v>56.75</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -16196,7 +16196,7 @@
       <c r="B108">
         <v>10</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="4">
         <v>67.75</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -16248,7 +16248,7 @@
       <c r="B109">
         <v>11</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="4">
         <v>75.400000000000006</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -16300,7 +16300,7 @@
       <c r="B110">
         <v>0</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="4">
         <v>115</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -16352,7 +16352,7 @@
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="4">
         <v>44</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -16404,7 +16404,7 @@
       <c r="B112">
         <v>2</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="4">
         <v>170.55</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -16456,7 +16456,7 @@
       <c r="B113">
         <v>3</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="4">
         <v>16.45</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -16508,7 +16508,7 @@
       <c r="B114">
         <v>4</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="4">
         <v>44.05</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -16560,7 +16560,7 @@
       <c r="B115">
         <v>5</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="4">
         <v>18.989999999999998</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -16612,7 +16612,7 @@
       <c r="B116">
         <v>6</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="4">
         <v>29.25</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -16664,7 +16664,7 @@
       <c r="B117">
         <v>7</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="4">
         <v>78.849999999999994</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -16716,7 +16716,7 @@
       <c r="B118">
         <v>8</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="4">
         <v>34.549999999999997</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -16768,7 +16768,7 @@
       <c r="B119">
         <v>9</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="4">
         <v>17.649999999999999</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -16820,7 +16820,7 @@
       <c r="B120">
         <v>10</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="4">
         <v>22.85</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -16872,7 +16872,7 @@
       <c r="B121">
         <v>11</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="4">
         <v>18.75</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -16924,7 +16924,7 @@
       <c r="B122">
         <v>0</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="4">
         <v>2630.25</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -16976,7 +16976,7 @@
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="4">
         <v>2460.5</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -17028,7 +17028,7 @@
       <c r="B124">
         <v>2</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="4">
         <v>1712.85</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -17080,7 +17080,7 @@
       <c r="B125">
         <v>3</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="4">
         <v>29.65</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -17132,7 +17132,7 @@
       <c r="B126">
         <v>4</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="4">
         <v>37.15</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -17184,7 +17184,7 @@
       <c r="B127">
         <v>5</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="4">
         <v>21.85</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -17236,7 +17236,7 @@
       <c r="B128">
         <v>6</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="4">
         <v>54.5</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -17288,7 +17288,7 @@
       <c r="B129">
         <v>7</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="4">
         <v>27.3</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -17340,7 +17340,7 @@
       <c r="B130">
         <v>8</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="4">
         <v>118.15</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -17392,7 +17392,7 @@
       <c r="B131">
         <v>9</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="4">
         <v>135.55000000000001</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -17444,7 +17444,7 @@
       <c r="B132">
         <v>10</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="4">
         <v>70.75</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -17496,7 +17496,7 @@
       <c r="B133">
         <v>11</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="4">
         <v>74.95</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -17548,7 +17548,7 @@
       <c r="B134">
         <v>0</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="4">
         <v>62.2</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -17600,7 +17600,7 @@
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="4">
         <v>79.989999999999995</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -17652,7 +17652,7 @@
       <c r="B136">
         <v>2</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="4">
         <v>99.95</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -17704,7 +17704,7 @@
       <c r="B137">
         <v>3</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="4">
         <v>118.7</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -17756,7 +17756,7 @@
       <c r="B138">
         <v>4</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="4">
         <v>268.2</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -17808,7 +17808,7 @@
       <c r="B139">
         <v>5</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="4">
         <v>19.399999999999999</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -17860,7 +17860,7 @@
       <c r="B140">
         <v>6</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="4">
         <v>90.9</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -17912,7 +17912,7 @@
       <c r="B141">
         <v>7</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="4">
         <v>92.5</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -17964,7 +17964,7 @@
       <c r="B142">
         <v>8</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="4">
         <v>140.19999999999999</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -18016,7 +18016,7 @@
       <c r="B143">
         <v>9</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="4">
         <v>51.55</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -18068,7 +18068,7 @@
       <c r="B144">
         <v>10</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="4">
         <v>63.8</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -18120,7 +18120,7 @@
       <c r="B145">
         <v>11</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="4">
         <v>29.99</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -18172,7 +18172,7 @@
       <c r="B146">
         <v>0</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="4">
         <v>20.8</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -18224,7 +18224,7 @@
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="4">
         <v>133.15</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -18276,7 +18276,7 @@
       <c r="B148">
         <v>2</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="4">
         <v>49.99</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -18328,7 +18328,7 @@
       <c r="B149">
         <v>3</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="4">
         <v>75.599999999999994</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -18380,7 +18380,7 @@
       <c r="B150">
         <v>4</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="4">
         <v>117.85</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -18432,7 +18432,7 @@
       <c r="B151">
         <v>5</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="4">
         <v>96.25</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -18484,7 +18484,7 @@
       <c r="B152">
         <v>6</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="4">
         <v>353.6</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -18536,7 +18536,7 @@
       <c r="B153">
         <v>7</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="4">
         <v>98.05</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -18588,7 +18588,7 @@
       <c r="B154">
         <v>8</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="4">
         <v>7.5</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -18640,7 +18640,7 @@
       <c r="B155">
         <v>9</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="4">
         <v>14.45</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -18692,7 +18692,7 @@
       <c r="B156">
         <v>10</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="4">
         <v>7.75</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -18744,7 +18744,7 @@
       <c r="B157">
         <v>11</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="4">
         <v>12.15</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -18796,7 +18796,7 @@
       <c r="B158">
         <v>0</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="4">
         <v>7.99</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -18848,7 +18848,7 @@
       <c r="B159">
         <v>1</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="4">
         <v>11.05</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -18900,7 +18900,7 @@
       <c r="B160">
         <v>2</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="4">
         <v>299.55</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -18952,7 +18952,7 @@
       <c r="B161">
         <v>3</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="4">
         <v>7.35</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -19004,7 +19004,7 @@
       <c r="B162">
         <v>4</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="4">
         <v>27</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -19056,7 +19056,7 @@
       <c r="B163">
         <v>5</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="4">
         <v>28.35</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -19108,7 +19108,7 @@
       <c r="B164">
         <v>6</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="4">
         <v>30.85</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -19160,7 +19160,7 @@
       <c r="B165">
         <v>7</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="4">
         <v>77.7</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -19212,7 +19212,7 @@
       <c r="B166">
         <v>8</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="4">
         <v>101.7</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -19264,7 +19264,7 @@
       <c r="B167">
         <v>9</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="4">
         <v>7.1</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -19316,7 +19316,7 @@
       <c r="B168">
         <v>10</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="4">
         <v>7.5</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -19368,7 +19368,7 @@
       <c r="B169">
         <v>11</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="4">
         <v>8.25</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -19420,7 +19420,7 @@
       <c r="B170">
         <v>0</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="4">
         <v>8.25</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -19472,7 +19472,7 @@
       <c r="B171">
         <v>1</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="4">
         <v>8.25</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -19524,7 +19524,7 @@
       <c r="B172">
         <v>2</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="4">
         <v>8.25</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -19576,7 +19576,7 @@
       <c r="B173">
         <v>3</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="4">
         <v>12.75</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -19628,7 +19628,7 @@
       <c r="B174">
         <v>4</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="4">
         <v>15.45</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -19680,7 +19680,7 @@
       <c r="B175">
         <v>5</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -19732,7 +19732,7 @@
       <c r="B176">
         <v>6</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="4">
         <v>27.5</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -19784,7 +19784,7 @@
       <c r="B177">
         <v>7</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="4">
         <v>12.05</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -19836,7 +19836,7 @@
       <c r="B178">
         <v>8</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="4">
         <v>19.2</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -19888,7 +19888,7 @@
       <c r="B179">
         <v>9</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="4">
         <v>5.99</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -19940,7 +19940,7 @@
       <c r="B180">
         <v>10</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="4">
         <v>8.15</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -19992,7 +19992,7 @@
       <c r="B181">
         <v>11</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="4">
         <v>29.99</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -20044,7 +20044,7 @@
       <c r="B182">
         <v>0</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="4">
         <v>10.9</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -20096,7 +20096,7 @@
       <c r="B183">
         <v>1</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="4">
         <v>13</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -20148,7 +20148,7 @@
       <c r="B184">
         <v>2</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="4">
         <v>13.25</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -20200,7 +20200,7 @@
       <c r="B185">
         <v>3</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="4">
         <v>14.55</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -20252,7 +20252,7 @@
       <c r="B186">
         <v>4</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="4">
         <v>10.8</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -20304,7 +20304,7 @@
       <c r="B187">
         <v>5</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="4">
         <v>44.45</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -20356,7 +20356,7 @@
       <c r="B188">
         <v>6</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="4">
         <v>16.95</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -20408,7 +20408,7 @@
       <c r="B189">
         <v>7</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="4">
         <v>24.05</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -20460,7 +20460,7 @@
       <c r="B190">
         <v>8</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="4">
         <v>23.1</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -20512,7 +20512,7 @@
       <c r="B191">
         <v>9</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="4">
         <v>17.149999999999999</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -20564,7 +20564,7 @@
       <c r="B192">
         <v>10</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="4">
         <v>62.1</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -20616,7 +20616,7 @@
       <c r="B193">
         <v>11</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="4">
         <v>39.5</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -20668,7 +20668,7 @@
       <c r="B194">
         <v>0</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="4">
         <v>13.3</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -20720,7 +20720,7 @@
       <c r="B195">
         <v>1</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="4">
         <v>14.55</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -20772,7 +20772,7 @@
       <c r="B196">
         <v>2</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="4">
         <v>20.399999999999999</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -20824,7 +20824,7 @@
       <c r="B197">
         <v>3</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -20876,7 +20876,7 @@
       <c r="B198">
         <v>4</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="4">
         <v>108.65</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -20928,7 +20928,7 @@
       <c r="B199">
         <v>5</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="4">
         <v>227.85</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -20980,7 +20980,7 @@
       <c r="B200">
         <v>6</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="4">
         <v>40.299999999999997</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -21032,7 +21032,7 @@
       <c r="B201">
         <v>7</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="4">
         <v>58</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -21084,7 +21084,7 @@
       <c r="B202">
         <v>8</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="4">
         <v>44.15</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -21136,7 +21136,7 @@
       <c r="B203">
         <v>9</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="4">
         <v>41.25</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -21188,7 +21188,7 @@
       <c r="B204">
         <v>10</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="4">
         <v>81.95</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -21240,7 +21240,7 @@
       <c r="B205">
         <v>11</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="4">
         <v>59.9</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -21292,7 +21292,7 @@
       <c r="B206">
         <v>0</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="4">
         <v>12.05</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -21344,7 +21344,7 @@
       <c r="B207">
         <v>1</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="4">
         <v>13.05</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -21396,7 +21396,7 @@
       <c r="B208">
         <v>2</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="4">
         <v>12.4</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -21448,7 +21448,7 @@
       <c r="B209">
         <v>3</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="4">
         <v>52.35</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -21500,7 +21500,7 @@
       <c r="B210">
         <v>4</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="4">
         <v>14.8</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -21552,7 +21552,7 @@
       <c r="B211">
         <v>5</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="4">
         <v>37.85</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -21604,7 +21604,7 @@
       <c r="B212">
         <v>6</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="4">
         <v>8.6</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -21656,7 +21656,7 @@
       <c r="B213">
         <v>7</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="4">
         <v>52.35</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -21708,7 +21708,7 @@
       <c r="B214">
         <v>8</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="4">
         <v>559.65</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -21760,7 +21760,7 @@
       <c r="B215">
         <v>0</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="4">
         <v>25.8</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -21812,7 +21812,7 @@
       <c r="B216">
         <v>1</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="4">
         <v>7.95</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -21864,7 +21864,7 @@
       <c r="B217">
         <v>2</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="4">
         <v>7.95</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -21916,7 +21916,7 @@
       <c r="B218">
         <v>3</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="4">
         <v>7.35</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -21968,7 +21968,7 @@
       <c r="B219">
         <v>4</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="4">
         <v>35.35</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -22020,7 +22020,7 @@
       <c r="B220">
         <v>5</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="4">
         <v>10.7</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -22072,7 +22072,7 @@
       <c r="B221">
         <v>6</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="4">
         <v>11.25</v>
       </c>
       <c r="D221" s="1" t="s">
@@ -22124,7 +22124,7 @@
       <c r="B222">
         <v>7</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="4">
         <v>29.95</v>
       </c>
       <c r="D222" s="1" t="s">
@@ -22176,7 +22176,7 @@
       <c r="B223">
         <v>8</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="4">
         <v>22.2</v>
       </c>
       <c r="D223" s="1" t="s">
@@ -22228,7 +22228,7 @@
       <c r="B224">
         <v>9</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="4">
         <v>33.75</v>
       </c>
       <c r="D224" s="1" t="s">
@@ -22280,7 +22280,7 @@
       <c r="B225">
         <v>10</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="4">
         <v>8.9499999999999993</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -22332,7 +22332,7 @@
       <c r="B226">
         <v>11</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="4">
         <v>27.4</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -22384,7 +22384,7 @@
       <c r="B227">
         <v>0</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="4">
         <v>45.9</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -22436,7 +22436,7 @@
       <c r="B228">
         <v>1</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="4">
         <v>59.45</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -22488,7 +22488,7 @@
       <c r="B229">
         <v>2</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="4">
         <v>15.95</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -22540,7 +22540,7 @@
       <c r="B230">
         <v>3</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="4">
         <v>19.5</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -22592,7 +22592,7 @@
       <c r="B231">
         <v>4</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="4">
         <v>24.45</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -22644,7 +22644,7 @@
       <c r="B232">
         <v>5</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="4">
         <v>24.45</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -22696,7 +22696,7 @@
       <c r="B233">
         <v>6</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="4">
         <v>28.7</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -22748,7 +22748,7 @@
       <c r="B234">
         <v>7</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -22800,7 +22800,7 @@
       <c r="B235">
         <v>8</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="4">
         <v>8.99</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -22852,7 +22852,7 @@
       <c r="B236">
         <v>9</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="4">
         <v>14.99</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -22904,7 +22904,7 @@
       <c r="B237">
         <v>10</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="4">
         <v>11</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -22956,7 +22956,7 @@
       <c r="B238">
         <v>11</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238" s="4">
         <v>9.85</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -23008,7 +23008,7 @@
       <c r="B239">
         <v>0</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="4">
         <v>84.35</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -23060,7 +23060,7 @@
       <c r="B240">
         <v>1</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="4">
         <v>16.3</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -23112,7 +23112,7 @@
       <c r="B241">
         <v>2</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="4">
         <v>64.150000000000006</v>
       </c>
       <c r="D241" s="1" t="s">
@@ -23164,7 +23164,7 @@
       <c r="B242">
         <v>3</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="4">
         <v>78.900000000000006</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -23216,7 +23216,7 @@
       <c r="B243">
         <v>4</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="4">
         <v>9.99</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -23268,7 +23268,7 @@
       <c r="B244">
         <v>5</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="4">
         <v>9.99</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -23320,7 +23320,7 @@
       <c r="B245">
         <v>6</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="4">
         <v>14.99</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -23372,7 +23372,7 @@
       <c r="B246">
         <v>7</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="4">
         <v>8.99</v>
       </c>
       <c r="D246" s="1" t="s">
@@ -23424,7 +23424,7 @@
       <c r="B247">
         <v>8</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247" s="4">
         <v>40.6</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -23476,7 +23476,7 @@
       <c r="B248">
         <v>9</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248" s="4">
         <v>14.99</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -23528,7 +23528,7 @@
       <c r="B249">
         <v>10</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249" s="4">
         <v>14.99</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -23580,7 +23580,7 @@
       <c r="B250">
         <v>11</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250" s="4">
         <v>11.99</v>
       </c>
       <c r="D250" s="1" t="s">
@@ -23632,7 +23632,7 @@
       <c r="B251">
         <v>0</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="4">
         <v>15.05</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -23684,7 +23684,7 @@
       <c r="B252">
         <v>1</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="4">
         <v>9.99</v>
       </c>
       <c r="D252" s="1" t="s">
@@ -23736,7 +23736,7 @@
       <c r="B253">
         <v>2</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="4">
         <v>9.99</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -23788,7 +23788,7 @@
       <c r="B254">
         <v>3</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="4">
         <v>9.99</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -23840,7 +23840,7 @@
       <c r="B255">
         <v>4</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="4">
         <v>41.35</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -23892,7 +23892,7 @@
       <c r="B256">
         <v>5</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256" s="4">
         <v>21.3</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -23944,7 +23944,7 @@
       <c r="B257">
         <v>6</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="4">
         <v>16.95</v>
       </c>
       <c r="D257" s="1" t="s">
@@ -23996,7 +23996,7 @@
       <c r="B258">
         <v>7</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="4">
         <v>14.99</v>
       </c>
       <c r="D258" s="1" t="s">
@@ -24048,7 +24048,7 @@
       <c r="B259">
         <v>8</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="4">
         <v>17.05</v>
       </c>
       <c r="D259" s="1" t="s">
@@ -24100,7 +24100,7 @@
       <c r="B260">
         <v>9</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="4">
         <v>19.5</v>
       </c>
       <c r="D260" s="1" t="s">
@@ -24152,7 +24152,7 @@
       <c r="B261">
         <v>10</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="4">
         <v>13.25</v>
       </c>
       <c r="D261" s="1" t="s">
@@ -24204,7 +24204,7 @@
       <c r="B262">
         <v>11</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="4">
         <v>15.5</v>
       </c>
       <c r="D262" s="1" t="s">
@@ -24256,7 +24256,7 @@
       <c r="B263">
         <v>0</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="4">
         <v>13.8</v>
       </c>
       <c r="D263" s="1" t="s">
@@ -24308,7 +24308,7 @@
       <c r="B264">
         <v>1</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="4">
         <v>14.99</v>
       </c>
       <c r="D264" s="1" t="s">
@@ -24360,7 +24360,7 @@
       <c r="B265">
         <v>2</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="4">
         <v>14.99</v>
       </c>
       <c r="D265" s="1" t="s">
@@ -24412,7 +24412,7 @@
       <c r="B266">
         <v>3</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="4">
         <v>23.2</v>
       </c>
       <c r="D266" s="1" t="s">
@@ -24464,7 +24464,7 @@
       <c r="B267">
         <v>4</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="4">
         <v>19.25</v>
       </c>
       <c r="D267" s="1" t="s">
@@ -24516,7 +24516,7 @@
       <c r="B268">
         <v>5</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="4">
         <v>42.05</v>
       </c>
       <c r="D268" s="1" t="s">
@@ -24568,7 +24568,7 @@
       <c r="B269">
         <v>6</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="4">
         <v>62.95</v>
       </c>
       <c r="D269" s="1" t="s">
@@ -24620,7 +24620,7 @@
       <c r="B270">
         <v>7</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="4">
         <v>14.55</v>
       </c>
       <c r="D270" s="1" t="s">
@@ -24672,7 +24672,7 @@
       <c r="B271">
         <v>8</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="4">
         <v>11.99</v>
       </c>
       <c r="D271" s="1" t="s">
@@ -24724,7 +24724,7 @@
       <c r="B272">
         <v>9</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="4">
         <v>14.55</v>
       </c>
       <c r="D272" s="1" t="s">
@@ -24776,7 +24776,7 @@
       <c r="B273">
         <v>10</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273" s="4">
         <v>14.55</v>
       </c>
       <c r="D273" s="1" t="s">
@@ -24828,7 +24828,7 @@
       <c r="B274">
         <v>11</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274" s="4">
         <v>12.05</v>
       </c>
       <c r="D274" s="1" t="s">
@@ -24880,7 +24880,7 @@
       <c r="B275">
         <v>0</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275" s="4">
         <v>22.3</v>
       </c>
       <c r="D275" s="1" t="s">
@@ -24932,7 +24932,7 @@
       <c r="B276">
         <v>1</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276" s="4">
         <v>21.15</v>
       </c>
       <c r="D276" s="1" t="s">
@@ -24984,7 +24984,7 @@
       <c r="B277">
         <v>2</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277" s="4">
         <v>22.25</v>
       </c>
       <c r="D277" s="1" t="s">
@@ -25036,7 +25036,7 @@
       <c r="B278">
         <v>3</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="4">
         <v>15.6</v>
       </c>
       <c r="D278" s="1" t="s">
@@ -25088,7 +25088,7 @@
       <c r="B279">
         <v>4</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="4">
         <v>15.6</v>
       </c>
       <c r="D279" s="1" t="s">
@@ -25140,7 +25140,7 @@
       <c r="B280">
         <v>5</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280" s="4">
         <v>10.55</v>
       </c>
       <c r="D280" s="1" t="s">
@@ -25192,7 +25192,7 @@
       <c r="B281">
         <v>6</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281" s="4">
         <v>8.4</v>
       </c>
       <c r="D281" s="1" t="s">
@@ -25244,7 +25244,7 @@
       <c r="B282">
         <v>7</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="4">
         <v>14.99</v>
       </c>
       <c r="D282" s="1" t="s">
@@ -25296,7 +25296,7 @@
       <c r="B283">
         <v>8</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283" s="4">
         <v>28.65</v>
       </c>
       <c r="D283" s="1" t="s">
@@ -25348,7 +25348,7 @@
       <c r="B284">
         <v>9</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284" s="4">
         <v>19.25</v>
       </c>
       <c r="D284" s="1" t="s">
@@ -25400,7 +25400,7 @@
       <c r="B285">
         <v>10</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285" s="4">
         <v>19.149999999999999</v>
       </c>
       <c r="D285" s="1" t="s">
@@ -25452,7 +25452,7 @@
       <c r="B286">
         <v>11</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286" s="4">
         <v>29.65</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -25504,7 +25504,7 @@
       <c r="B287">
         <v>0</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287" s="4">
         <v>24.85</v>
       </c>
       <c r="D287" s="1" t="s">
@@ -25556,7 +25556,7 @@
       <c r="B288">
         <v>1</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288" s="4">
         <v>24.85</v>
       </c>
       <c r="D288" s="1" t="s">
@@ -25608,7 +25608,7 @@
       <c r="B289">
         <v>2</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289" s="4">
         <v>16</v>
       </c>
       <c r="D289" s="1" t="s">
@@ -25660,7 +25660,7 @@
       <c r="B290">
         <v>3</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290" s="4">
         <v>9.75</v>
       </c>
       <c r="D290" s="1" t="s">
@@ -25712,7 +25712,7 @@
       <c r="B291">
         <v>4</v>
       </c>
-      <c r="C291" s="1">
+      <c r="C291" s="4">
         <v>56.65</v>
       </c>
       <c r="D291" s="1" t="s">
@@ -25764,7 +25764,7 @@
       <c r="B292">
         <v>5</v>
       </c>
-      <c r="C292" s="1">
+      <c r="C292" s="4">
         <v>18.149999999999999</v>
       </c>
       <c r="D292" s="1" t="s">
@@ -25816,7 +25816,7 @@
       <c r="B293">
         <v>6</v>
       </c>
-      <c r="C293" s="1">
+      <c r="C293" s="4">
         <v>31.25</v>
       </c>
       <c r="D293" s="1" t="s">
@@ -25868,7 +25868,7 @@
       <c r="B294">
         <v>7</v>
       </c>
-      <c r="C294" s="1">
+      <c r="C294" s="4">
         <v>51.95</v>
       </c>
       <c r="D294" s="1" t="s">
@@ -25920,7 +25920,7 @@
       <c r="B295">
         <v>8</v>
       </c>
-      <c r="C295" s="1">
+      <c r="C295" s="4">
         <v>69.75</v>
       </c>
       <c r="D295" s="1" t="s">
@@ -25972,7 +25972,7 @@
       <c r="B296">
         <v>9</v>
       </c>
-      <c r="C296" s="1">
+      <c r="C296" s="4">
         <v>9.99</v>
       </c>
       <c r="D296" s="1" t="s">
@@ -26024,7 +26024,7 @@
       <c r="B297">
         <v>10</v>
       </c>
-      <c r="C297" s="1">
+      <c r="C297" s="4">
         <v>16</v>
       </c>
       <c r="D297" s="1" t="s">
@@ -26076,7 +26076,7 @@
       <c r="B298">
         <v>11</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C298" s="4">
         <v>23.25</v>
       </c>
       <c r="D298" s="1" t="s">
@@ -26128,7 +26128,7 @@
       <c r="B299">
         <v>0</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C299" s="4">
         <v>14.99</v>
       </c>
       <c r="D299" s="1" t="s">
@@ -26180,7 +26180,7 @@
       <c r="B300">
         <v>1</v>
       </c>
-      <c r="C300" s="1">
+      <c r="C300" s="4">
         <v>34.9</v>
       </c>
       <c r="D300" s="1" t="s">
@@ -26232,7 +26232,7 @@
       <c r="B301">
         <v>2</v>
       </c>
-      <c r="C301" s="1">
+      <c r="C301" s="4">
         <v>14.5</v>
       </c>
       <c r="D301" s="1" t="s">
@@ -26284,7 +26284,7 @@
       <c r="B302">
         <v>3</v>
       </c>
-      <c r="C302" s="1">
+      <c r="C302" s="4">
         <v>21.35</v>
       </c>
       <c r="D302" s="1" t="s">
@@ -26336,7 +26336,7 @@
       <c r="B303">
         <v>4</v>
       </c>
-      <c r="C303" s="1">
+      <c r="C303" s="4">
         <v>26.99</v>
       </c>
       <c r="D303" s="1" t="s">
@@ -26388,7 +26388,7 @@
       <c r="B304">
         <v>5</v>
       </c>
-      <c r="C304" s="1">
+      <c r="C304" s="4">
         <v>43.6</v>
       </c>
       <c r="D304" s="1" t="s">
@@ -26440,7 +26440,7 @@
       <c r="B305">
         <v>6</v>
       </c>
-      <c r="C305" s="1">
+      <c r="C305" s="4">
         <v>59.05</v>
       </c>
       <c r="D305" s="1" t="s">
@@ -26492,7 +26492,7 @@
       <c r="B306">
         <v>7</v>
       </c>
-      <c r="C306" s="1">
+      <c r="C306" s="4">
         <v>9.9</v>
       </c>
       <c r="D306" s="1" t="s">
@@ -26544,7 +26544,7 @@
       <c r="B307">
         <v>8</v>
       </c>
-      <c r="C307" s="1">
+      <c r="C307" s="4">
         <v>15.45</v>
       </c>
       <c r="D307" s="1" t="s">
@@ -26596,7 +26596,7 @@
       <c r="B308">
         <v>9</v>
       </c>
-      <c r="C308" s="1">
+      <c r="C308" s="4">
         <v>11.99</v>
       </c>
       <c r="D308" s="1" t="s">
@@ -26648,7 +26648,7 @@
       <c r="B309">
         <v>10</v>
       </c>
-      <c r="C309" s="1">
+      <c r="C309" s="4">
         <v>16</v>
       </c>
       <c r="D309" s="1" t="s">
@@ -26700,7 +26700,7 @@
       <c r="B310">
         <v>11</v>
       </c>
-      <c r="C310" s="1">
+      <c r="C310" s="4">
         <v>16.7</v>
       </c>
       <c r="D310" s="1" t="s">
@@ -26752,7 +26752,7 @@
       <c r="B311">
         <v>0</v>
       </c>
-      <c r="C311" s="1">
+      <c r="C311" s="4">
         <v>18.2</v>
       </c>
       <c r="D311" s="1" t="s">
@@ -26804,7 +26804,7 @@
       <c r="B312">
         <v>1</v>
       </c>
-      <c r="C312" s="1">
+      <c r="C312" s="4">
         <v>40.299999999999997</v>
       </c>
       <c r="D312" s="1" t="s">
@@ -26856,7 +26856,7 @@
       <c r="B313">
         <v>2</v>
       </c>
-      <c r="C313" s="1">
+      <c r="C313" s="4">
         <v>7.95</v>
       </c>
       <c r="D313" s="1" t="s">
@@ -26908,7 +26908,7 @@
       <c r="B314">
         <v>3</v>
       </c>
-      <c r="C314" s="1">
+      <c r="C314" s="4">
         <v>14.99</v>
       </c>
       <c r="D314" s="1" t="s">
@@ -26960,7 +26960,7 @@
       <c r="B315">
         <v>4</v>
       </c>
-      <c r="C315" s="1">
+      <c r="C315" s="4">
         <v>23.5</v>
       </c>
       <c r="D315" s="1" t="s">
@@ -27012,7 +27012,7 @@
       <c r="B316">
         <v>5</v>
       </c>
-      <c r="C316" s="1">
+      <c r="C316" s="4">
         <v>8.15</v>
       </c>
       <c r="D316" s="1" t="s">
@@ -27064,7 +27064,7 @@
       <c r="B317">
         <v>6</v>
       </c>
-      <c r="C317" s="1">
+      <c r="C317" s="4">
         <v>8.15</v>
       </c>
       <c r="D317" s="1" t="s">
@@ -27116,7 +27116,7 @@
       <c r="B318">
         <v>7</v>
       </c>
-      <c r="C318" s="1">
+      <c r="C318" s="4">
         <v>9.9</v>
       </c>
       <c r="D318" s="1" t="s">
@@ -27168,7 +27168,7 @@
       <c r="B319">
         <v>8</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C319" s="4">
         <v>17.75</v>
       </c>
       <c r="D319" s="1" t="s">
@@ -27220,7 +27220,7 @@
       <c r="B320">
         <v>9</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C320" s="4">
         <v>34.049999999999997</v>
       </c>
       <c r="D320" s="1" t="s">
@@ -27272,7 +27272,7 @@
       <c r="B321">
         <v>10</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="4">
         <v>13.7</v>
       </c>
       <c r="D321" s="1" t="s">
@@ -27324,7 +27324,7 @@
       <c r="B322">
         <v>11</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="4">
         <v>14</v>
       </c>
       <c r="D322" s="1" t="s">
@@ -27376,7 +27376,7 @@
       <c r="B323">
         <v>0</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="4">
         <v>8.15</v>
       </c>
       <c r="D323" s="1" t="s">
@@ -27428,7 +27428,7 @@
       <c r="B324">
         <v>1</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="4">
         <v>8.15</v>
       </c>
       <c r="D324" s="1" t="s">
@@ -27480,7 +27480,7 @@
       <c r="B325">
         <v>2</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="4">
         <v>18.7</v>
       </c>
       <c r="D325" s="1" t="s">
@@ -27532,7 +27532,7 @@
       <c r="B326">
         <v>3</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="4">
         <v>21.9</v>
       </c>
       <c r="D326" s="1" t="s">
@@ -27584,7 +27584,7 @@
       <c r="B327">
         <v>4</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C327" s="4">
         <v>41.8</v>
       </c>
       <c r="D327" s="1" t="s">
@@ -27636,7 +27636,7 @@
       <c r="B328">
         <v>5</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="4">
         <v>35.450000000000003</v>
       </c>
       <c r="D328" s="1" t="s">
@@ -27688,7 +27688,7 @@
       <c r="B329">
         <v>6</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C329" s="4">
         <v>20</v>
       </c>
       <c r="D329" s="1" t="s">
@@ -27740,7 +27740,7 @@
       <c r="B330">
         <v>7</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="4">
         <v>8.15</v>
       </c>
       <c r="D330" s="1" t="s">
@@ -27792,7 +27792,7 @@
       <c r="B331">
         <v>8</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="4">
         <v>7.95</v>
       </c>
       <c r="D331" s="1" t="s">
@@ -27844,7 +27844,7 @@
       <c r="B332">
         <v>9</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="4">
         <v>9.5</v>
       </c>
       <c r="D332" s="1" t="s">
@@ -27896,7 +27896,7 @@
       <c r="B333">
         <v>10</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="4">
         <v>9.99</v>
       </c>
       <c r="D333" s="1" t="s">
@@ -27948,7 +27948,7 @@
       <c r="B334">
         <v>11</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="4">
         <v>70.599999999999994</v>
       </c>
       <c r="D334" s="1" t="s">
@@ -28000,7 +28000,7 @@
       <c r="B335">
         <v>0</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="4">
         <v>9.6</v>
       </c>
       <c r="D335" s="1" t="s">
@@ -28052,7 +28052,7 @@
       <c r="B336">
         <v>1</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="4">
         <v>9.6</v>
       </c>
       <c r="D336" s="1" t="s">
@@ -28104,7 +28104,7 @@
       <c r="B337">
         <v>2</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337" s="4">
         <v>10.199999999999999</v>
       </c>
       <c r="D337" s="1" t="s">
@@ -28156,7 +28156,7 @@
       <c r="B338">
         <v>0</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338" s="4">
         <v>18.2</v>
       </c>
       <c r="D338" s="1" t="s">
@@ -28208,7 +28208,7 @@
       <c r="B339">
         <v>1</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D339" s="1" t="s">
@@ -28260,7 +28260,7 @@
       <c r="B340">
         <v>2</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D340" s="1" t="s">
@@ -28312,7 +28312,7 @@
       <c r="B341">
         <v>3</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="4">
         <v>18.75</v>
       </c>
       <c r="D341" s="1" t="s">
@@ -28364,7 +28364,7 @@
       <c r="B342">
         <v>4</v>
       </c>
-      <c r="C342" s="1">
+      <c r="C342" s="4">
         <v>6.85</v>
       </c>
       <c r="D342" s="1" t="s">
@@ -28416,7 +28416,7 @@
       <c r="B343">
         <v>5</v>
       </c>
-      <c r="C343" s="1">
+      <c r="C343" s="4">
         <v>5.65</v>
       </c>
       <c r="D343" s="1" t="s">
@@ -28468,7 +28468,7 @@
       <c r="B344">
         <v>6</v>
       </c>
-      <c r="C344" s="1">
+      <c r="C344" s="4">
         <v>22.99</v>
       </c>
       <c r="D344" s="1" t="s">
@@ -28520,7 +28520,7 @@
       <c r="B345">
         <v>7</v>
       </c>
-      <c r="C345" s="1">
+      <c r="C345" s="4">
         <v>13.4</v>
       </c>
       <c r="D345" s="1" t="s">
@@ -28572,7 +28572,7 @@
       <c r="B346">
         <v>8</v>
       </c>
-      <c r="C346" s="1">
+      <c r="C346" s="4">
         <v>8.9</v>
       </c>
       <c r="D346" s="1" t="s">
@@ -28624,7 +28624,7 @@
       <c r="B347">
         <v>9</v>
       </c>
-      <c r="C347" s="1">
+      <c r="C347" s="4">
         <v>8.9</v>
       </c>
       <c r="D347" s="1" t="s">
@@ -28676,7 +28676,7 @@
       <c r="B348">
         <v>10</v>
       </c>
-      <c r="C348" s="1">
+      <c r="C348" s="4">
         <v>6.6</v>
       </c>
       <c r="D348" s="1" t="s">
@@ -28728,7 +28728,7 @@
       <c r="B349">
         <v>11</v>
       </c>
-      <c r="C349" s="1">
+      <c r="C349" s="4">
         <v>8.9</v>
       </c>
       <c r="D349" s="1" t="s">
@@ -28780,7 +28780,7 @@
       <c r="B350">
         <v>0</v>
       </c>
-      <c r="C350" s="1">
+      <c r="C350" s="4">
         <v>7.65</v>
       </c>
       <c r="D350" s="1" t="s">
@@ -28832,7 +28832,7 @@
       <c r="B351">
         <v>1</v>
       </c>
-      <c r="C351" s="1">
+      <c r="C351" s="4">
         <v>8.9</v>
       </c>
       <c r="D351" s="1" t="s">
@@ -28884,7 +28884,7 @@
       <c r="B352">
         <v>2</v>
       </c>
-      <c r="C352" s="1">
+      <c r="C352" s="4">
         <v>6.6</v>
       </c>
       <c r="D352" s="1" t="s">
@@ -28936,7 +28936,7 @@
       <c r="B353">
         <v>3</v>
       </c>
-      <c r="C353" s="1">
+      <c r="C353" s="4">
         <v>7.65</v>
       </c>
       <c r="D353" s="1" t="s">
@@ -28988,7 +28988,7 @@
       <c r="B354">
         <v>4</v>
       </c>
-      <c r="C354" s="1">
+      <c r="C354" s="4">
         <v>19.5</v>
       </c>
       <c r="D354" s="1" t="s">
@@ -29040,7 +29040,7 @@
       <c r="B355">
         <v>5</v>
       </c>
-      <c r="C355" s="1">
+      <c r="C355" s="4">
         <v>13.4</v>
       </c>
       <c r="D355" s="1" t="s">
@@ -29092,7 +29092,7 @@
       <c r="B356">
         <v>6</v>
       </c>
-      <c r="C356" s="1">
+      <c r="C356" s="4">
         <v>6.8</v>
       </c>
       <c r="D356" s="1" t="s">
@@ -29144,7 +29144,7 @@
       <c r="B357">
         <v>7</v>
       </c>
-      <c r="C357" s="1">
+      <c r="C357" s="4">
         <v>60</v>
       </c>
       <c r="D357" s="1" t="s">
@@ -29196,7 +29196,7 @@
       <c r="B358">
         <v>0</v>
       </c>
-      <c r="C358" s="1">
+      <c r="C358" s="4">
         <v>13.4</v>
       </c>
       <c r="D358" s="1" t="s">
@@ -29248,7 +29248,7 @@
       <c r="B359">
         <v>1</v>
       </c>
-      <c r="C359" s="1">
+      <c r="C359" s="4">
         <v>29.15</v>
       </c>
       <c r="D359" s="1" t="s">
@@ -29300,7 +29300,7 @@
       <c r="B360">
         <v>2</v>
       </c>
-      <c r="C360" s="1">
+      <c r="C360" s="4">
         <v>27.7</v>
       </c>
       <c r="D360" s="1" t="s">
@@ -29352,7 +29352,7 @@
       <c r="B361">
         <v>3</v>
       </c>
-      <c r="C361" s="1">
+      <c r="C361" s="4">
         <v>18.05</v>
       </c>
       <c r="D361" s="1" t="s">
@@ -29404,7 +29404,7 @@
       <c r="B362">
         <v>4</v>
       </c>
-      <c r="C362" s="1">
+      <c r="C362" s="4">
         <v>90.25</v>
       </c>
       <c r="D362" s="1" t="s">
@@ -29456,7 +29456,7 @@
       <c r="B363">
         <v>5</v>
       </c>
-      <c r="C363" s="1">
+      <c r="C363" s="4">
         <v>25.99</v>
       </c>
       <c r="D363" s="1" t="s">
@@ -29508,7 +29508,7 @@
       <c r="B364">
         <v>6</v>
       </c>
-      <c r="C364" s="1">
+      <c r="C364" s="4">
         <v>13.4</v>
       </c>
       <c r="D364" s="1" t="s">
@@ -29560,7 +29560,7 @@
       <c r="B365">
         <v>7</v>
       </c>
-      <c r="C365" s="1">
+      <c r="C365" s="4">
         <v>13.4</v>
       </c>
       <c r="D365" s="1" t="s">
@@ -29612,7 +29612,7 @@
       <c r="B366">
         <v>8</v>
       </c>
-      <c r="C366" s="1">
+      <c r="C366" s="4">
         <v>13.4</v>
       </c>
       <c r="D366" s="1" t="s">
@@ -29664,7 +29664,7 @@
       <c r="B367">
         <v>9</v>
       </c>
-      <c r="C367" s="1">
+      <c r="C367" s="4">
         <v>15.25</v>
       </c>
       <c r="D367" s="1" t="s">
@@ -29716,7 +29716,7 @@
       <c r="B368">
         <v>10</v>
       </c>
-      <c r="C368" s="1">
+      <c r="C368" s="4">
         <v>32.700000000000003</v>
       </c>
       <c r="D368" s="1" t="s">
@@ -29768,7 +29768,7 @@
       <c r="B369">
         <v>11</v>
       </c>
-      <c r="C369" s="1">
+      <c r="C369" s="4">
         <v>20.75</v>
       </c>
       <c r="D369" s="1" t="s">
@@ -29820,7 +29820,7 @@
       <c r="B370">
         <v>0</v>
       </c>
-      <c r="C370" s="1">
+      <c r="C370" s="4">
         <v>23.95</v>
       </c>
       <c r="D370" s="1" t="s">
@@ -29872,7 +29872,7 @@
       <c r="B371">
         <v>1</v>
       </c>
-      <c r="C371" s="1">
+      <c r="C371" s="4">
         <v>21.2</v>
       </c>
       <c r="D371" s="1" t="s">
@@ -29924,7 +29924,7 @@
       <c r="B372">
         <v>2</v>
       </c>
-      <c r="C372" s="1">
+      <c r="C372" s="4">
         <v>17.100000000000001</v>
       </c>
       <c r="D372" s="1" t="s">
@@ -29976,7 +29976,7 @@
       <c r="B373">
         <v>3</v>
       </c>
-      <c r="C373" s="1">
+      <c r="C373" s="4">
         <v>18.05</v>
       </c>
       <c r="D373" s="1" t="s">
@@ -30028,7 +30028,7 @@
       <c r="B374">
         <v>4</v>
       </c>
-      <c r="C374" s="1">
+      <c r="C374" s="4">
         <v>20.65</v>
       </c>
       <c r="D374" s="1" t="s">
@@ -30080,7 +30080,7 @@
       <c r="B375">
         <v>5</v>
       </c>
-      <c r="C375" s="1">
+      <c r="C375" s="4">
         <v>29.7</v>
       </c>
       <c r="D375" s="1" t="s">
@@ -30132,7 +30132,7 @@
       <c r="B376">
         <v>6</v>
       </c>
-      <c r="C376" s="1">
+      <c r="C376" s="4">
         <v>42.05</v>
       </c>
       <c r="D376" s="1" t="s">
@@ -30184,7 +30184,7 @@
       <c r="B377">
         <v>7</v>
       </c>
-      <c r="C377" s="1">
+      <c r="C377" s="4">
         <v>23.65</v>
       </c>
       <c r="D377" s="1" t="s">
@@ -30236,7 +30236,7 @@
       <c r="B378">
         <v>8</v>
       </c>
-      <c r="C378" s="1">
+      <c r="C378" s="4">
         <v>36.25</v>
       </c>
       <c r="D378" s="1" t="s">
@@ -30288,7 +30288,7 @@
       <c r="B379">
         <v>9</v>
       </c>
-      <c r="C379" s="1">
+      <c r="C379" s="4">
         <v>67.05</v>
       </c>
       <c r="D379" s="1" t="s">
@@ -30340,7 +30340,7 @@
       <c r="B380">
         <v>10</v>
       </c>
-      <c r="C380" s="1">
+      <c r="C380" s="4">
         <v>19.75</v>
       </c>
       <c r="D380" s="1" t="s">
@@ -30392,7 +30392,7 @@
       <c r="B381">
         <v>11</v>
       </c>
-      <c r="C381" s="1">
+      <c r="C381" s="4">
         <v>15.65</v>
       </c>
       <c r="D381" s="1" t="s">
@@ -30444,7 +30444,7 @@
       <c r="B382">
         <v>0</v>
       </c>
-      <c r="C382" s="1">
+      <c r="C382" s="4">
         <v>20.6</v>
       </c>
       <c r="D382" s="1" t="s">
@@ -30496,7 +30496,7 @@
       <c r="B383">
         <v>1</v>
       </c>
-      <c r="C383" s="1">
+      <c r="C383" s="4">
         <v>14.9</v>
       </c>
       <c r="D383" s="1" t="s">
@@ -30548,7 +30548,7 @@
       <c r="B384">
         <v>2</v>
       </c>
-      <c r="C384" s="1">
+      <c r="C384" s="4">
         <v>16.350000000000001</v>
       </c>
       <c r="D384" s="1" t="s">
@@ -30600,7 +30600,7 @@
       <c r="B385">
         <v>3</v>
       </c>
-      <c r="C385" s="1">
+      <c r="C385" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="D385" s="1" t="s">
@@ -30652,7 +30652,7 @@
       <c r="B386">
         <v>4</v>
       </c>
-      <c r="C386" s="1">
+      <c r="C386" s="4">
         <v>15.45</v>
       </c>
       <c r="D386" s="1" t="s">
@@ -30704,7 +30704,7 @@
       <c r="B387">
         <v>5</v>
       </c>
-      <c r="C387" s="1">
+      <c r="C387" s="4">
         <v>13.4</v>
       </c>
       <c r="D387" s="1" t="s">
@@ -30756,7 +30756,7 @@
       <c r="B388">
         <v>6</v>
       </c>
-      <c r="C388" s="1">
+      <c r="C388" s="4">
         <v>20.149999999999999</v>
       </c>
       <c r="D388" s="1" t="s">
@@ -30808,7 +30808,7 @@
       <c r="B389">
         <v>7</v>
       </c>
-      <c r="C389" s="1">
+      <c r="C389" s="4">
         <v>15.1</v>
       </c>
       <c r="D389" s="1" t="s">
@@ -30860,7 +30860,7 @@
       <c r="B390">
         <v>0</v>
       </c>
-      <c r="C390" s="1">
+      <c r="C390" s="4">
         <v>75.3</v>
       </c>
       <c r="D390" s="1" t="s">
@@ -30912,7 +30912,7 @@
       <c r="B391">
         <v>1</v>
       </c>
-      <c r="C391" s="1">
+      <c r="C391" s="4">
         <v>14.9</v>
       </c>
       <c r="D391" s="1" t="s">
@@ -30964,7 +30964,7 @@
       <c r="B392">
         <v>2</v>
       </c>
-      <c r="C392" s="1">
+      <c r="C392" s="4">
         <v>32.85</v>
       </c>
       <c r="D392" s="1" t="s">
@@ -31016,7 +31016,7 @@
       <c r="B393">
         <v>3</v>
       </c>
-      <c r="C393" s="1">
+      <c r="C393" s="4">
         <v>25.9</v>
       </c>
       <c r="D393" s="1" t="s">
@@ -31068,7 +31068,7 @@
       <c r="B394">
         <v>4</v>
       </c>
-      <c r="C394" s="1">
+      <c r="C394" s="4">
         <v>11.25</v>
       </c>
       <c r="D394" s="1" t="s">
@@ -31120,7 +31120,7 @@
       <c r="B395">
         <v>5</v>
       </c>
-      <c r="C395" s="1">
+      <c r="C395" s="4">
         <v>12.5</v>
       </c>
       <c r="D395" s="1" t="s">
@@ -31172,7 +31172,7 @@
       <c r="B396">
         <v>6</v>
       </c>
-      <c r="C396" s="1">
+      <c r="C396" s="4">
         <v>16.2</v>
       </c>
       <c r="D396" s="1" t="s">
@@ -31224,7 +31224,7 @@
       <c r="B397">
         <v>7</v>
       </c>
-      <c r="C397" s="1">
+      <c r="C397" s="4">
         <v>17.2</v>
       </c>
       <c r="D397" s="1" t="s">
@@ -31276,7 +31276,7 @@
       <c r="B398">
         <v>8</v>
       </c>
-      <c r="C398" s="1">
+      <c r="C398" s="4">
         <v>76.400000000000006</v>
       </c>
       <c r="D398" s="1" t="s">
@@ -31328,7 +31328,7 @@
       <c r="B399">
         <v>9</v>
       </c>
-      <c r="C399" s="1">
+      <c r="C399" s="4">
         <v>11</v>
       </c>
       <c r="D399" s="1" t="s">
@@ -31380,7 +31380,7 @@
       <c r="B400">
         <v>10</v>
       </c>
-      <c r="C400" s="1">
+      <c r="C400" s="4">
         <v>9.75</v>
       </c>
       <c r="D400" s="1" t="s">
@@ -31432,7 +31432,7 @@
       <c r="B401">
         <v>11</v>
       </c>
-      <c r="C401" s="1">
+      <c r="C401" s="4">
         <v>9.75</v>
       </c>
       <c r="D401" s="1" t="s">
@@ -31484,7 +31484,7 @@
       <c r="B402">
         <v>0</v>
       </c>
-      <c r="C402" s="1">
+      <c r="C402" s="4">
         <v>6.95</v>
       </c>
       <c r="D402" s="1" t="s">
@@ -31536,7 +31536,7 @@
       <c r="B403">
         <v>1</v>
       </c>
-      <c r="C403" s="1">
+      <c r="C403" s="4">
         <v>6.95</v>
       </c>
       <c r="D403" s="1" t="s">
@@ -31588,7 +31588,7 @@
       <c r="B404">
         <v>2</v>
       </c>
-      <c r="C404" s="1">
+      <c r="C404" s="4">
         <v>9.9</v>
       </c>
       <c r="D404" s="1" t="s">
@@ -31640,7 +31640,7 @@
       <c r="B405">
         <v>3</v>
       </c>
-      <c r="C405" s="1">
+      <c r="C405" s="4">
         <v>8.9499999999999993</v>
       </c>
       <c r="D405" s="1" t="s">
@@ -31692,7 +31692,7 @@
       <c r="B406">
         <v>4</v>
       </c>
-      <c r="C406" s="1">
+      <c r="C406" s="4">
         <v>14.05</v>
       </c>
       <c r="D406" s="1" t="s">
@@ -31744,7 +31744,7 @@
       <c r="B407">
         <v>5</v>
       </c>
-      <c r="C407" s="1">
+      <c r="C407" s="4">
         <v>16.2</v>
       </c>
       <c r="D407" s="1" t="s">
@@ -31796,7 +31796,7 @@
       <c r="B408">
         <v>6</v>
       </c>
-      <c r="C408" s="1">
+      <c r="C408" s="4">
         <v>14.05</v>
       </c>
       <c r="D408" s="1" t="s">
@@ -31848,7 +31848,7 @@
       <c r="B409">
         <v>7</v>
       </c>
-      <c r="C409" s="1">
+      <c r="C409" s="4">
         <v>10.5</v>
       </c>
       <c r="D409" s="1" t="s">
@@ -31900,7 +31900,7 @@
       <c r="B410">
         <v>8</v>
       </c>
-      <c r="C410" s="1">
+      <c r="C410" s="4">
         <v>18.899999999999999</v>
       </c>
       <c r="D410" s="1" t="s">
@@ -31952,7 +31952,7 @@
       <c r="B411">
         <v>9</v>
       </c>
-      <c r="C411" s="1">
+      <c r="C411" s="4">
         <v>64.45</v>
       </c>
       <c r="D411" s="1" t="s">
@@ -32004,7 +32004,7 @@
       <c r="B412">
         <v>10</v>
       </c>
-      <c r="C412" s="1">
+      <c r="C412" s="4">
         <v>15.25</v>
       </c>
       <c r="D412" s="1" t="s">
@@ -32056,7 +32056,7 @@
       <c r="B413">
         <v>11</v>
       </c>
-      <c r="C413" s="1">
+      <c r="C413" s="4">
         <v>8.5500000000000007</v>
       </c>
       <c r="D413" s="1" t="s">
@@ -32108,7 +32108,7 @@
       <c r="B414">
         <v>0</v>
       </c>
-      <c r="C414" s="1">
+      <c r="C414" s="4">
         <v>8.5500000000000007</v>
       </c>
       <c r="D414" s="1" t="s">
@@ -32160,7 +32160,7 @@
       <c r="B415">
         <v>1</v>
       </c>
-      <c r="C415" s="1">
+      <c r="C415" s="4">
         <v>8.6</v>
       </c>
       <c r="D415" s="1" t="s">
@@ -32212,7 +32212,7 @@
       <c r="B416">
         <v>2</v>
       </c>
-      <c r="C416" s="1">
+      <c r="C416" s="4">
         <v>12.95</v>
       </c>
       <c r="D416" s="1" t="s">
@@ -32264,7 +32264,7 @@
       <c r="B417">
         <v>3</v>
       </c>
-      <c r="C417" s="1">
+      <c r="C417" s="4">
         <v>6.95</v>
       </c>
       <c r="D417" s="1" t="s">
@@ -32316,7 +32316,7 @@
       <c r="B418">
         <v>4</v>
       </c>
-      <c r="C418" s="1">
+      <c r="C418" s="4">
         <v>16.149999999999999</v>
       </c>
       <c r="D418" s="1" t="s">
@@ -32368,7 +32368,7 @@
       <c r="B419">
         <v>5</v>
       </c>
-      <c r="C419" s="1">
+      <c r="C419" s="4">
         <v>38.549999999999997</v>
       </c>
       <c r="D419" s="1" t="s">
@@ -32420,7 +32420,7 @@
       <c r="B420">
         <v>6</v>
       </c>
-      <c r="C420" s="1">
+      <c r="C420" s="4">
         <v>7.1</v>
       </c>
       <c r="D420" s="1" t="s">
@@ -32472,7 +32472,7 @@
       <c r="B421">
         <v>7</v>
       </c>
-      <c r="C421" s="1">
+      <c r="C421" s="4">
         <v>7.1</v>
       </c>
       <c r="D421" s="1" t="s">
@@ -32524,7 +32524,7 @@
       <c r="B422">
         <v>8</v>
       </c>
-      <c r="C422" s="1">
+      <c r="C422" s="4">
         <v>9</v>
       </c>
       <c r="D422" s="1" t="s">
@@ -32576,7 +32576,7 @@
       <c r="B423">
         <v>9</v>
       </c>
-      <c r="C423" s="1">
+      <c r="C423" s="4">
         <v>9.9499999999999993</v>
       </c>
       <c r="D423" s="1" t="s">
@@ -32628,7 +32628,7 @@
       <c r="B424">
         <v>10</v>
       </c>
-      <c r="C424" s="1">
+      <c r="C424" s="4">
         <v>9.9499999999999993</v>
       </c>
       <c r="D424" s="1" t="s">
@@ -32680,7 +32680,7 @@
       <c r="B425">
         <v>11</v>
       </c>
-      <c r="C425" s="1">
+      <c r="C425" s="4">
         <v>9.15</v>
       </c>
       <c r="D425" s="1" t="s">
@@ -32732,7 +32732,7 @@
       <c r="B426">
         <v>0</v>
       </c>
-      <c r="C426" s="1">
+      <c r="C426" s="4">
         <v>13.65</v>
       </c>
       <c r="D426" s="1" t="s">
@@ -32784,7 +32784,7 @@
       <c r="B427">
         <v>0</v>
       </c>
-      <c r="C427" s="1">
+      <c r="C427" s="4">
         <v>27.95</v>
       </c>
       <c r="D427" s="1" t="s">
@@ -32836,7 +32836,7 @@
       <c r="B428">
         <v>1</v>
       </c>
-      <c r="C428" s="1">
+      <c r="C428" s="4">
         <v>16.45</v>
       </c>
       <c r="D428" s="1" t="s">
@@ -32888,7 +32888,7 @@
       <c r="B429">
         <v>2</v>
       </c>
-      <c r="C429" s="1">
+      <c r="C429" s="4">
         <v>29.99</v>
       </c>
       <c r="D429" s="1" t="s">
@@ -32940,7 +32940,7 @@
       <c r="B430">
         <v>3</v>
       </c>
-      <c r="C430" s="1">
+      <c r="C430" s="4">
         <v>26</v>
       </c>
       <c r="D430" s="1" t="s">
@@ -32992,7 +32992,7 @@
       <c r="B431">
         <v>4</v>
       </c>
-      <c r="C431" s="1">
+      <c r="C431" s="4">
         <v>67.150000000000006</v>
       </c>
       <c r="D431" s="1" t="s">
@@ -33044,7 +33044,7 @@
       <c r="B432">
         <v>5</v>
       </c>
-      <c r="C432" s="1">
+      <c r="C432" s="4">
         <v>38.5</v>
       </c>
       <c r="D432" s="1" t="s">
@@ -33096,7 +33096,7 @@
       <c r="B433">
         <v>6</v>
       </c>
-      <c r="C433" s="1">
+      <c r="C433" s="4">
         <v>55.45</v>
       </c>
       <c r="D433" s="1" t="s">
@@ -33148,7 +33148,7 @@
       <c r="B434">
         <v>7</v>
       </c>
-      <c r="C434" s="1">
+      <c r="C434" s="4">
         <v>11.99</v>
       </c>
       <c r="D434" s="1" t="s">
@@ -33200,7 +33200,7 @@
       <c r="B435">
         <v>8</v>
       </c>
-      <c r="C435" s="1">
+      <c r="C435" s="4">
         <v>23.75</v>
       </c>
       <c r="D435" s="1" t="s">
@@ -33252,7 +33252,7 @@
       <c r="B436">
         <v>9</v>
       </c>
-      <c r="C436" s="1">
+      <c r="C436" s="4">
         <v>21.99</v>
       </c>
       <c r="D436" s="1" t="s">
@@ -33304,7 +33304,7 @@
       <c r="B437">
         <v>10</v>
       </c>
-      <c r="C437" s="1">
+      <c r="C437" s="4">
         <v>20.7</v>
       </c>
       <c r="D437" s="1" t="s">
@@ -33356,7 +33356,7 @@
       <c r="B438">
         <v>11</v>
       </c>
-      <c r="C438" s="1">
+      <c r="C438" s="4">
         <v>27.1</v>
       </c>
       <c r="D438" s="1" t="s">
@@ -33408,7 +33408,7 @@
       <c r="B439">
         <v>0</v>
       </c>
-      <c r="C439" s="1">
+      <c r="C439" s="4">
         <v>26.6</v>
       </c>
       <c r="D439" s="1" t="s">
@@ -33460,7 +33460,7 @@
       <c r="B440">
         <v>1</v>
       </c>
-      <c r="C440" s="1">
+      <c r="C440" s="4">
         <v>37.9</v>
       </c>
       <c r="D440" s="1" t="s">
@@ -33512,7 +33512,7 @@
       <c r="B441">
         <v>2</v>
       </c>
-      <c r="C441" s="1">
+      <c r="C441" s="4">
         <v>44.5</v>
       </c>
       <c r="D441" s="1" t="s">
@@ -33564,7 +33564,7 @@
       <c r="B442">
         <v>3</v>
       </c>
-      <c r="C442" s="1">
+      <c r="C442" s="4">
         <v>42.5</v>
       </c>
       <c r="D442" s="1" t="s">
@@ -33616,7 +33616,7 @@
       <c r="B443">
         <v>4</v>
       </c>
-      <c r="C443" s="1">
+      <c r="C443" s="4">
         <v>15.45</v>
       </c>
       <c r="D443" s="1" t="s">
@@ -33668,7 +33668,7 @@
       <c r="B444">
         <v>5</v>
       </c>
-      <c r="C444" s="1">
+      <c r="C444" s="4">
         <v>31.9</v>
       </c>
       <c r="D444" s="1" t="s">
@@ -33720,7 +33720,7 @@
       <c r="B445">
         <v>0</v>
       </c>
-      <c r="C445" s="1">
+      <c r="C445" s="4">
         <v>16.3</v>
       </c>
       <c r="D445" s="1" t="s">
@@ -33772,7 +33772,7 @@
       <c r="B446">
         <v>1</v>
       </c>
-      <c r="C446" s="1">
+      <c r="C446" s="4">
         <v>14.8</v>
       </c>
       <c r="D446" s="1" t="s">
@@ -33824,7 +33824,7 @@
       <c r="B447">
         <v>2</v>
       </c>
-      <c r="C447" s="1">
+      <c r="C447" s="4">
         <v>12.55</v>
       </c>
       <c r="D447" s="1" t="s">
@@ -33876,7 +33876,7 @@
       <c r="B448">
         <v>3</v>
       </c>
-      <c r="C448" s="1">
+      <c r="C448" s="4">
         <v>14.5</v>
       </c>
       <c r="D448" s="1" t="s">
@@ -33928,7 +33928,7 @@
       <c r="B449">
         <v>4</v>
       </c>
-      <c r="C449" s="1">
+      <c r="C449" s="4">
         <v>14.2</v>
       </c>
       <c r="D449" s="1" t="s">
@@ -33980,7 +33980,7 @@
       <c r="B450">
         <v>5</v>
       </c>
-      <c r="C450" s="1">
+      <c r="C450" s="4">
         <v>35</v>
       </c>
       <c r="D450" s="1" t="s">
@@ -34032,7 +34032,7 @@
       <c r="B451">
         <v>6</v>
       </c>
-      <c r="C451" s="1">
+      <c r="C451" s="4">
         <v>41.45</v>
       </c>
       <c r="D451" s="1" t="s">
@@ -34084,7 +34084,7 @@
       <c r="B452">
         <v>7</v>
       </c>
-      <c r="C452" s="1">
+      <c r="C452" s="4">
         <v>36.99</v>
       </c>
       <c r="D452" s="1" t="s">
@@ -34136,7 +34136,7 @@
       <c r="B453">
         <v>8</v>
       </c>
-      <c r="C453" s="1">
+      <c r="C453" s="4">
         <v>55.65</v>
       </c>
       <c r="D453" s="1" t="s">
@@ -34188,7 +34188,7 @@
       <c r="B454">
         <v>9</v>
       </c>
-      <c r="C454" s="1">
+      <c r="C454" s="4">
         <v>49.45</v>
       </c>
       <c r="D454" s="1" t="s">
@@ -34240,7 +34240,7 @@
       <c r="B455">
         <v>10</v>
       </c>
-      <c r="C455" s="1">
+      <c r="C455" s="4">
         <v>78.599999999999994</v>
       </c>
       <c r="D455" s="1" t="s">
@@ -34292,7 +34292,7 @@
       <c r="B456">
         <v>11</v>
       </c>
-      <c r="C456" s="1">
+      <c r="C456" s="4">
         <v>19.7</v>
       </c>
       <c r="D456" s="1" t="s">
@@ -34344,7 +34344,7 @@
       <c r="B457">
         <v>0</v>
       </c>
-      <c r="C457" s="1">
+      <c r="C457" s="4">
         <v>28.95</v>
       </c>
       <c r="D457" s="1" t="s">
@@ -34396,7 +34396,7 @@
       <c r="B458">
         <v>1</v>
       </c>
-      <c r="C458" s="1">
+      <c r="C458" s="4">
         <v>52.45</v>
       </c>
       <c r="D458" s="1" t="s">
@@ -34448,7 +34448,7 @@
       <c r="B459">
         <v>2</v>
       </c>
-      <c r="C459" s="1">
+      <c r="C459" s="4">
         <v>29.45</v>
       </c>
       <c r="D459" s="1" t="s">
@@ -34500,7 +34500,7 @@
       <c r="B460">
         <v>3</v>
       </c>
-      <c r="C460" s="1">
+      <c r="C460" s="4">
         <v>57.45</v>
       </c>
       <c r="D460" s="1" t="s">
@@ -34552,7 +34552,7 @@
       <c r="B461">
         <v>4</v>
       </c>
-      <c r="C461" s="1">
+      <c r="C461" s="4">
         <v>24.2</v>
       </c>
       <c r="D461" s="1" t="s">
@@ -34604,7 +34604,7 @@
       <c r="B462">
         <v>5</v>
       </c>
-      <c r="C462" s="1">
+      <c r="C462" s="4">
         <v>39.99</v>
       </c>
       <c r="D462" s="1" t="s">
@@ -34656,7 +34656,7 @@
       <c r="B463">
         <v>6</v>
       </c>
-      <c r="C463" s="1">
+      <c r="C463" s="4">
         <v>22.7</v>
       </c>
       <c r="D463" s="1" t="s">
@@ -34708,7 +34708,7 @@
       <c r="B464">
         <v>7</v>
       </c>
-      <c r="C464" s="1">
+      <c r="C464" s="4">
         <v>21.5</v>
       </c>
       <c r="D464" s="1" t="s">
@@ -34760,7 +34760,7 @@
       <c r="B465">
         <v>8</v>
       </c>
-      <c r="C465" s="1">
+      <c r="C465" s="4">
         <v>37.9</v>
       </c>
       <c r="D465" s="1" t="s">
@@ -34812,7 +34812,7 @@
       <c r="B466">
         <v>9</v>
       </c>
-      <c r="C466" s="1">
+      <c r="C466" s="4">
         <v>27.2</v>
       </c>
       <c r="D466" s="1" t="s">
@@ -34864,7 +34864,7 @@
       <c r="B467">
         <v>10</v>
       </c>
-      <c r="C467" s="1">
+      <c r="C467" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D467" s="1" t="s">
@@ -34916,7 +34916,7 @@
       <c r="B468">
         <v>11</v>
       </c>
-      <c r="C468" s="1">
+      <c r="C468" s="4">
         <v>14.2</v>
       </c>
       <c r="D468" s="1" t="s">
@@ -34968,7 +34968,7 @@
       <c r="B469">
         <v>0</v>
       </c>
-      <c r="C469" s="1">
+      <c r="C469" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D469" s="1" t="s">
@@ -35020,7 +35020,7 @@
       <c r="B470">
         <v>1</v>
       </c>
-      <c r="C470" s="1">
+      <c r="C470" s="4">
         <v>17.989999999999998</v>
       </c>
       <c r="D470" s="1" t="s">
@@ -35072,7 +35072,7 @@
       <c r="B471">
         <v>2</v>
       </c>
-      <c r="C471" s="1">
+      <c r="C471" s="4">
         <v>21.5</v>
       </c>
       <c r="D471" s="1" t="s">
@@ -35124,7 +35124,7 @@
       <c r="B472">
         <v>3</v>
       </c>
-      <c r="C472" s="1">
+      <c r="C472" s="4">
         <v>12.99</v>
       </c>
       <c r="D472" s="1" t="s">
@@ -35176,7 +35176,7 @@
       <c r="B473">
         <v>4</v>
       </c>
-      <c r="C473" s="1">
+      <c r="C473" s="4">
         <v>11.99</v>
       </c>
       <c r="D473" s="1" t="s">
@@ -35228,7 +35228,7 @@
       <c r="B474">
         <v>5</v>
       </c>
-      <c r="C474" s="1">
+      <c r="C474" s="4">
         <v>12.35</v>
       </c>
       <c r="D474" s="1" t="s">
@@ -35280,7 +35280,7 @@
       <c r="B475">
         <v>6</v>
       </c>
-      <c r="C475" s="1">
+      <c r="C475" s="4">
         <v>12.35</v>
       </c>
       <c r="D475" s="1" t="s">
@@ -35332,7 +35332,7 @@
       <c r="B476">
         <v>7</v>
       </c>
-      <c r="C476" s="1">
+      <c r="C476" s="4">
         <v>12.35</v>
       </c>
       <c r="D476" s="1" t="s">
@@ -35384,7 +35384,7 @@
       <c r="B477">
         <v>8</v>
       </c>
-      <c r="C477" s="1">
+      <c r="C477" s="4">
         <v>9.75</v>
       </c>
       <c r="D477" s="1" t="s">
@@ -35436,7 +35436,7 @@
       <c r="B478">
         <v>9</v>
       </c>
-      <c r="C478" s="1">
+      <c r="C478" s="4">
         <v>11.45</v>
       </c>
       <c r="D478" s="1" t="s">
@@ -35488,7 +35488,7 @@
       <c r="B479">
         <v>10</v>
       </c>
-      <c r="C479" s="1">
+      <c r="C479" s="4">
         <v>11.45</v>
       </c>
       <c r="D479" s="1" t="s">
@@ -35540,7 +35540,7 @@
       <c r="B480">
         <v>11</v>
       </c>
-      <c r="C480" s="1">
+      <c r="C480" s="4">
         <v>10.95</v>
       </c>
       <c r="D480" s="1" t="s">
@@ -35592,7 +35592,7 @@
       <c r="B481">
         <v>0</v>
       </c>
-      <c r="C481" s="1">
+      <c r="C481" s="4">
         <v>11.45</v>
       </c>
       <c r="D481" s="1" t="s">
@@ -35644,7 +35644,7 @@
       <c r="B482">
         <v>1</v>
       </c>
-      <c r="C482" s="1">
+      <c r="C482" s="4">
         <v>11.65</v>
       </c>
       <c r="D482" s="1" t="s">
@@ -35696,7 +35696,7 @@
       <c r="B483">
         <v>2</v>
       </c>
-      <c r="C483" s="1">
+      <c r="C483" s="4">
         <v>12.15</v>
       </c>
       <c r="D483" s="1" t="s">
@@ -35748,7 +35748,7 @@
       <c r="B484">
         <v>3</v>
       </c>
-      <c r="C484" s="1">
+      <c r="C484" s="4">
         <v>12.15</v>
       </c>
       <c r="D484" s="1" t="s">
@@ -35800,7 +35800,7 @@
       <c r="B485">
         <v>4</v>
       </c>
-      <c r="C485" s="1">
+      <c r="C485" s="4">
         <v>4.99</v>
       </c>
       <c r="D485" s="1" t="s">
@@ -35852,7 +35852,7 @@
       <c r="B486">
         <v>5</v>
       </c>
-      <c r="C486" s="1">
+      <c r="C486" s="4">
         <v>12.95</v>
       </c>
       <c r="D486" s="1" t="s">
@@ -35904,7 +35904,7 @@
       <c r="B487">
         <v>6</v>
       </c>
-      <c r="C487" s="1">
+      <c r="C487" s="4">
         <v>21.99</v>
       </c>
       <c r="D487" s="1" t="s">
@@ -35956,7 +35956,7 @@
       <c r="B488">
         <v>7</v>
       </c>
-      <c r="C488" s="1">
+      <c r="C488" s="4">
         <v>16.989999999999998</v>
       </c>
       <c r="D488" s="1" t="s">
@@ -36008,7 +36008,7 @@
       <c r="B489">
         <v>8</v>
       </c>
-      <c r="C489" s="1">
+      <c r="C489" s="4">
         <v>14.45</v>
       </c>
       <c r="D489" s="1" t="s">
@@ -36060,7 +36060,7 @@
       <c r="B490">
         <v>9</v>
       </c>
-      <c r="C490" s="1">
+      <c r="C490" s="4">
         <v>22.45</v>
       </c>
       <c r="D490" s="1" t="s">
@@ -36112,7 +36112,7 @@
       <c r="B491">
         <v>10</v>
       </c>
-      <c r="C491" s="1">
+      <c r="C491" s="4">
         <v>12.9</v>
       </c>
       <c r="D491" s="1" t="s">
@@ -36164,7 +36164,7 @@
       <c r="B492">
         <v>11</v>
       </c>
-      <c r="C492" s="1">
+      <c r="C492" s="4">
         <v>17.100000000000001</v>
       </c>
       <c r="D492" s="1" t="s">
@@ -36216,7 +36216,7 @@
       <c r="B493">
         <v>0</v>
       </c>
-      <c r="C493" s="1">
+      <c r="C493" s="4">
         <v>14.99</v>
       </c>
       <c r="D493" s="1" t="s">
@@ -36268,7 +36268,7 @@
       <c r="B494">
         <v>1</v>
       </c>
-      <c r="C494" s="1">
+      <c r="C494" s="4">
         <v>12.95</v>
       </c>
       <c r="D494" s="1" t="s">
@@ -36320,7 +36320,7 @@
       <c r="B495">
         <v>2</v>
       </c>
-      <c r="C495" s="1">
+      <c r="C495" s="4">
         <v>9.99</v>
       </c>
       <c r="D495" s="1" t="s">
@@ -36372,7 +36372,7 @@
       <c r="B496">
         <v>3</v>
       </c>
-      <c r="C496" s="1">
+      <c r="C496" s="4">
         <v>12.05</v>
       </c>
       <c r="D496" s="1" t="s">
@@ -36424,7 +36424,7 @@
       <c r="B497">
         <v>4</v>
       </c>
-      <c r="C497" s="1">
+      <c r="C497" s="4">
         <v>12.05</v>
       </c>
       <c r="D497" s="1" t="s">
@@ -36476,7 +36476,7 @@
       <c r="B498">
         <v>5</v>
       </c>
-      <c r="C498" s="1">
+      <c r="C498" s="4">
         <v>29.99</v>
       </c>
       <c r="D498" s="1" t="s">
@@ -36528,7 +36528,7 @@
       <c r="B499">
         <v>6</v>
       </c>
-      <c r="C499" s="1">
+      <c r="C499" s="4">
         <v>10.65</v>
       </c>
       <c r="D499" s="1" t="s">
@@ -36580,7 +36580,7 @@
       <c r="B500">
         <v>7</v>
       </c>
-      <c r="C500" s="1">
+      <c r="C500" s="4">
         <v>12.35</v>
       </c>
       <c r="D500" s="1" t="s">
@@ -36632,7 +36632,7 @@
       <c r="B501">
         <v>8</v>
       </c>
-      <c r="C501" s="1">
+      <c r="C501" s="4">
         <v>12.35</v>
       </c>
       <c r="D501" s="1" t="s">
@@ -36684,7 +36684,7 @@
       <c r="B502">
         <v>9</v>
       </c>
-      <c r="C502" s="1">
+      <c r="C502" s="4">
         <v>51.95</v>
       </c>
       <c r="D502" s="1" t="s">
@@ -36736,7 +36736,7 @@
       <c r="B503">
         <v>10</v>
       </c>
-      <c r="C503" s="1">
+      <c r="C503" s="4">
         <v>11.99</v>
       </c>
       <c r="D503" s="1" t="s">
@@ -36788,7 +36788,7 @@
       <c r="B504">
         <v>11</v>
       </c>
-      <c r="C504" s="1">
+      <c r="C504" s="4">
         <v>5.99</v>
       </c>
       <c r="D504" s="1" t="s">
@@ -36840,7 +36840,7 @@
       <c r="B505">
         <v>0</v>
       </c>
-      <c r="C505" s="1">
+      <c r="C505" s="4">
         <v>9.75</v>
       </c>
       <c r="D505" s="1" t="s">
@@ -36892,7 +36892,7 @@
       <c r="B506">
         <v>1</v>
       </c>
-      <c r="C506" s="1">
+      <c r="C506" s="4">
         <v>9.75</v>
       </c>
       <c r="D506" s="1" t="s">
@@ -36944,7 +36944,7 @@
       <c r="B507">
         <v>2</v>
       </c>
-      <c r="C507" s="1">
+      <c r="C507" s="4">
         <v>13.55</v>
       </c>
       <c r="D507" s="1" t="s">
@@ -36996,7 +36996,7 @@
       <c r="B508">
         <v>3</v>
       </c>
-      <c r="C508" s="1">
+      <c r="C508" s="4">
         <v>14.35</v>
       </c>
       <c r="D508" s="1" t="s">
@@ -37048,7 +37048,7 @@
       <c r="B509">
         <v>4</v>
       </c>
-      <c r="C509" s="1">
+      <c r="C509" s="4">
         <v>7.2</v>
       </c>
       <c r="D509" s="1" t="s">
@@ -37100,7 +37100,7 @@
       <c r="B510">
         <v>5</v>
       </c>
-      <c r="C510" s="1">
+      <c r="C510" s="4">
         <v>15.6</v>
       </c>
       <c r="D510" s="1" t="s">
@@ -37152,7 +37152,7 @@
       <c r="B511">
         <v>6</v>
       </c>
-      <c r="C511" s="1">
+      <c r="C511" s="4">
         <v>15.6</v>
       </c>
       <c r="D511" s="1" t="s">
@@ -37204,7 +37204,7 @@
       <c r="B512">
         <v>7</v>
       </c>
-      <c r="C512" s="1">
+      <c r="C512" s="4">
         <v>8.3000000000000007</v>
       </c>
       <c r="D512" s="1" t="s">
@@ -37256,7 +37256,7 @@
       <c r="B513">
         <v>8</v>
       </c>
-      <c r="C513" s="1">
+      <c r="C513" s="4">
         <v>8.3000000000000007</v>
       </c>
       <c r="D513" s="1" t="s">
@@ -37308,7 +37308,7 @@
       <c r="B514">
         <v>9</v>
       </c>
-      <c r="C514" s="1">
+      <c r="C514" s="4">
         <v>9.25</v>
       </c>
       <c r="D514" s="1" t="s">
@@ -37360,7 +37360,7 @@
       <c r="B515">
         <v>10</v>
       </c>
-      <c r="C515" s="1">
+      <c r="C515" s="4">
         <v>9.75</v>
       </c>
       <c r="D515" s="1" t="s">
@@ -37412,7 +37412,7 @@
       <c r="B516">
         <v>11</v>
       </c>
-      <c r="C516" s="1">
+      <c r="C516" s="4">
         <v>13.15</v>
       </c>
       <c r="D516" s="1" t="s">
@@ -37464,7 +37464,7 @@
       <c r="B517">
         <v>0</v>
       </c>
-      <c r="C517" s="1">
+      <c r="C517" s="4">
         <v>9.99</v>
       </c>
       <c r="D517" s="1" t="s">
@@ -37516,7 +37516,7 @@
       <c r="B518">
         <v>1</v>
       </c>
-      <c r="C518" s="1">
+      <c r="C518" s="4">
         <v>14.15</v>
       </c>
       <c r="D518" s="1" t="s">
@@ -37568,7 +37568,7 @@
       <c r="B519">
         <v>2</v>
       </c>
-      <c r="C519" s="1">
+      <c r="C519" s="4">
         <v>14.15</v>
       </c>
       <c r="D519" s="1" t="s">
@@ -37620,7 +37620,7 @@
       <c r="B520">
         <v>3</v>
       </c>
-      <c r="C520" s="1">
+      <c r="C520" s="4">
         <v>13.35</v>
       </c>
       <c r="D520" s="1" t="s">
@@ -37672,7 +37672,7 @@
       <c r="B521">
         <v>4</v>
       </c>
-      <c r="C521" s="1">
+      <c r="C521" s="4">
         <v>23.2</v>
       </c>
       <c r="D521" s="1" t="s">
@@ -37724,7 +37724,7 @@
       <c r="B522">
         <v>5</v>
       </c>
-      <c r="C522" s="1">
+      <c r="C522" s="4">
         <v>23.2</v>
       </c>
       <c r="D522" s="1" t="s">
@@ -37776,7 +37776,7 @@
       <c r="B523">
         <v>6</v>
       </c>
-      <c r="C523" s="1">
+      <c r="C523" s="4">
         <v>21.8</v>
       </c>
       <c r="D523" s="1" t="s">
@@ -37828,7 +37828,7 @@
       <c r="B524">
         <v>7</v>
       </c>
-      <c r="C524" s="1">
+      <c r="C524" s="4">
         <v>22.5</v>
       </c>
       <c r="D524" s="1" t="s">
@@ -37880,7 +37880,7 @@
       <c r="B525">
         <v>8</v>
       </c>
-      <c r="C525" s="1">
+      <c r="C525" s="4">
         <v>93.8</v>
       </c>
       <c r="D525" s="1" t="s">
@@ -37932,7 +37932,7 @@
       <c r="B526">
         <v>0</v>
       </c>
-      <c r="C526" s="1">
+      <c r="C526" s="4">
         <v>15.55</v>
       </c>
       <c r="D526" s="1" t="s">
@@ -37984,7 +37984,7 @@
       <c r="B527">
         <v>1</v>
       </c>
-      <c r="C527" s="1">
+      <c r="C527" s="4">
         <v>21.6</v>
       </c>
       <c r="D527" s="1" t="s">
@@ -38036,7 +38036,7 @@
       <c r="B528">
         <v>2</v>
       </c>
-      <c r="C528" s="1">
+      <c r="C528" s="4">
         <v>13.8</v>
       </c>
       <c r="D528" s="1" t="s">
@@ -38088,7 +38088,7 @@
       <c r="B529">
         <v>3</v>
       </c>
-      <c r="C529" s="1">
+      <c r="C529" s="4">
         <v>62.95</v>
       </c>
       <c r="D529" s="1" t="s">
@@ -38140,7 +38140,7 @@
       <c r="B530">
         <v>4</v>
       </c>
-      <c r="C530" s="1">
+      <c r="C530" s="4">
         <v>120.45</v>
       </c>
       <c r="D530" s="1" t="s">
@@ -38192,7 +38192,7 @@
       <c r="B531">
         <v>5</v>
       </c>
-      <c r="C531" s="1">
+      <c r="C531" s="4">
         <v>13.15</v>
       </c>
       <c r="D531" s="1" t="s">
@@ -38244,7 +38244,7 @@
       <c r="B532">
         <v>6</v>
       </c>
-      <c r="C532" s="1">
+      <c r="C532" s="4">
         <v>9.6</v>
       </c>
       <c r="D532" s="1" t="s">
@@ -38296,7 +38296,7 @@
       <c r="B533">
         <v>7</v>
       </c>
-      <c r="C533" s="1">
+      <c r="C533" s="4">
         <v>31.65</v>
       </c>
       <c r="D533" s="1" t="s">
@@ -38348,7 +38348,7 @@
       <c r="B534">
         <v>0</v>
       </c>
-      <c r="C534" s="1">
+      <c r="C534" s="4">
         <v>29.99</v>
       </c>
       <c r="D534" s="1" t="s">
@@ -38400,7 +38400,7 @@
       <c r="B535">
         <v>1</v>
       </c>
-      <c r="C535" s="1">
+      <c r="C535" s="4">
         <v>30</v>
       </c>
       <c r="D535" s="1" t="s">
@@ -38452,7 +38452,7 @@
       <c r="B536">
         <v>2</v>
       </c>
-      <c r="C536" s="1">
+      <c r="C536" s="4">
         <v>24.85</v>
       </c>
       <c r="D536" s="1" t="s">
@@ -38504,7 +38504,7 @@
       <c r="B537">
         <v>3</v>
       </c>
-      <c r="C537" s="1">
+      <c r="C537" s="4">
         <v>47.15</v>
       </c>
       <c r="D537" s="1" t="s">
@@ -38556,7 +38556,7 @@
       <c r="B538">
         <v>4</v>
       </c>
-      <c r="C538" s="1">
+      <c r="C538" s="4">
         <v>65.5</v>
       </c>
       <c r="D538" s="1" t="s">
@@ -38608,7 +38608,7 @@
       <c r="B539">
         <v>5</v>
       </c>
-      <c r="C539" s="1">
+      <c r="C539" s="4">
         <v>80.8</v>
       </c>
       <c r="D539" s="1" t="s">
@@ -38660,7 +38660,7 @@
       <c r="B540">
         <v>6</v>
       </c>
-      <c r="C540" s="1">
+      <c r="C540" s="4">
         <v>38.6</v>
       </c>
       <c r="D540" s="1" t="s">
@@ -38712,7 +38712,7 @@
       <c r="B541">
         <v>7</v>
       </c>
-      <c r="C541" s="1">
+      <c r="C541" s="4">
         <v>56.2</v>
       </c>
       <c r="D541" s="1" t="s">
@@ -38764,7 +38764,7 @@
       <c r="B542">
         <v>8</v>
       </c>
-      <c r="C542" s="1">
+      <c r="C542" s="4">
         <v>69.989999999999995</v>
       </c>
       <c r="D542" s="1" t="s">
@@ -38816,7 +38816,7 @@
       <c r="B543">
         <v>9</v>
       </c>
-      <c r="C543" s="1">
+      <c r="C543" s="4">
         <v>34.99</v>
       </c>
       <c r="D543" s="1" t="s">
@@ -38868,7 +38868,7 @@
       <c r="B544">
         <v>10</v>
       </c>
-      <c r="C544" s="1">
+      <c r="C544" s="4">
         <v>24.99</v>
       </c>
       <c r="D544" s="1" t="s">
@@ -38920,7 +38920,7 @@
       <c r="B545">
         <v>11</v>
       </c>
-      <c r="C545" s="1">
+      <c r="C545" s="4">
         <v>24.05</v>
       </c>
       <c r="D545" s="1" t="s">
@@ -38972,7 +38972,7 @@
       <c r="B546">
         <v>0</v>
       </c>
-      <c r="C546" s="1">
+      <c r="C546" s="4">
         <v>45.9</v>
       </c>
       <c r="D546" s="1" t="s">
@@ -39024,7 +39024,7 @@
       <c r="B547">
         <v>1</v>
       </c>
-      <c r="C547" s="1">
+      <c r="C547" s="4">
         <v>34.99</v>
       </c>
       <c r="D547" s="1" t="s">
@@ -39076,7 +39076,7 @@
       <c r="B548">
         <v>2</v>
       </c>
-      <c r="C548" s="1">
+      <c r="C548" s="4">
         <v>44.45</v>
       </c>
       <c r="D548" s="1" t="s">
@@ -39128,7 +39128,7 @@
       <c r="B549">
         <v>3</v>
       </c>
-      <c r="C549" s="1">
+      <c r="C549" s="4">
         <v>48.1</v>
       </c>
       <c r="D549" s="1" t="s">
@@ -39180,7 +39180,7 @@
       <c r="B550">
         <v>4</v>
       </c>
-      <c r="C550" s="1">
+      <c r="C550" s="4">
         <v>45.45</v>
       </c>
       <c r="D550" s="1" t="s">
@@ -39232,7 +39232,7 @@
       <c r="B551">
         <v>5</v>
       </c>
-      <c r="C551" s="1">
+      <c r="C551" s="4">
         <v>100.1</v>
       </c>
       <c r="D551" s="1" t="s">
@@ -39284,7 +39284,7 @@
       <c r="B552">
         <v>6</v>
       </c>
-      <c r="C552" s="1">
+      <c r="C552" s="4">
         <v>56.85</v>
       </c>
       <c r="D552" s="1" t="s">
@@ -39336,7 +39336,7 @@
       <c r="B553">
         <v>0</v>
       </c>
-      <c r="C553" s="1">
+      <c r="C553" s="4">
         <v>27.95</v>
       </c>
       <c r="D553" s="1" t="s">
@@ -39388,7 +39388,7 @@
       <c r="B554">
         <v>1</v>
       </c>
-      <c r="C554" s="1">
+      <c r="C554" s="4">
         <v>16.45</v>
       </c>
       <c r="D554" s="1" t="s">
@@ -39440,7 +39440,7 @@
       <c r="B555">
         <v>2</v>
       </c>
-      <c r="C555" s="1">
+      <c r="C555" s="4">
         <v>29.99</v>
       </c>
       <c r="D555" s="1" t="s">
@@ -39492,7 +39492,7 @@
       <c r="B556">
         <v>3</v>
       </c>
-      <c r="C556" s="1">
+      <c r="C556" s="4">
         <v>26</v>
       </c>
       <c r="D556" s="1" t="s">
@@ -39544,7 +39544,7 @@
       <c r="B557">
         <v>4</v>
       </c>
-      <c r="C557" s="1">
+      <c r="C557" s="4">
         <v>67.150000000000006</v>
       </c>
       <c r="D557" s="1" t="s">
@@ -39596,7 +39596,7 @@
       <c r="B558">
         <v>5</v>
       </c>
-      <c r="C558" s="1">
+      <c r="C558" s="4">
         <v>38.5</v>
       </c>
       <c r="D558" s="1" t="s">
@@ -39648,7 +39648,7 @@
       <c r="B559">
         <v>6</v>
       </c>
-      <c r="C559" s="1">
+      <c r="C559" s="4">
         <v>55.45</v>
       </c>
       <c r="D559" s="1" t="s">
@@ -39700,7 +39700,7 @@
       <c r="B560">
         <v>7</v>
       </c>
-      <c r="C560" s="1">
+      <c r="C560" s="4">
         <v>11.99</v>
       </c>
       <c r="D560" s="1" t="s">
@@ -39752,7 +39752,7 @@
       <c r="B561">
         <v>8</v>
       </c>
-      <c r="C561" s="1">
+      <c r="C561" s="4">
         <v>23.75</v>
       </c>
       <c r="D561" s="1" t="s">
@@ -39804,7 +39804,7 @@
       <c r="B562">
         <v>9</v>
       </c>
-      <c r="C562" s="1">
+      <c r="C562" s="4">
         <v>21.99</v>
       </c>
       <c r="D562" s="1" t="s">
@@ -39856,7 +39856,7 @@
       <c r="B563">
         <v>10</v>
       </c>
-      <c r="C563" s="1">
+      <c r="C563" s="4">
         <v>20.7</v>
       </c>
       <c r="D563" s="1" t="s">
@@ -39908,7 +39908,7 @@
       <c r="B564">
         <v>11</v>
       </c>
-      <c r="C564" s="1">
+      <c r="C564" s="4">
         <v>27.1</v>
       </c>
       <c r="D564" s="1" t="s">
@@ -39960,7 +39960,7 @@
       <c r="B565">
         <v>0</v>
       </c>
-      <c r="C565" s="1">
+      <c r="C565" s="4">
         <v>26.6</v>
       </c>
       <c r="D565" s="1" t="s">
@@ -40012,7 +40012,7 @@
       <c r="B566">
         <v>1</v>
       </c>
-      <c r="C566" s="1">
+      <c r="C566" s="4">
         <v>37.9</v>
       </c>
       <c r="D566" s="1" t="s">
@@ -40064,7 +40064,7 @@
       <c r="B567">
         <v>2</v>
       </c>
-      <c r="C567" s="1">
+      <c r="C567" s="4">
         <v>44.5</v>
       </c>
       <c r="D567" s="1" t="s">
@@ -40116,7 +40116,7 @@
       <c r="B568">
         <v>3</v>
       </c>
-      <c r="C568" s="1">
+      <c r="C568" s="4">
         <v>42.5</v>
       </c>
       <c r="D568" s="1" t="s">
@@ -40168,7 +40168,7 @@
       <c r="B569">
         <v>4</v>
       </c>
-      <c r="C569" s="1">
+      <c r="C569" s="4">
         <v>15.45</v>
       </c>
       <c r="D569" s="1" t="s">
@@ -40220,7 +40220,7 @@
       <c r="B570">
         <v>5</v>
       </c>
-      <c r="C570" s="1">
+      <c r="C570" s="4">
         <v>31.9</v>
       </c>
       <c r="D570" s="1" t="s">
@@ -40272,7 +40272,7 @@
       <c r="B571">
         <v>0</v>
       </c>
-      <c r="C571" s="1">
+      <c r="C571" s="4">
         <v>7.15</v>
       </c>
       <c r="D571" s="1" t="s">
@@ -40324,7 +40324,7 @@
       <c r="B572">
         <v>1</v>
       </c>
-      <c r="C572" s="1">
+      <c r="C572" s="4">
         <v>7.55</v>
       </c>
       <c r="D572" s="1" t="s">
@@ -40376,7 +40376,7 @@
       <c r="B573">
         <v>2</v>
       </c>
-      <c r="C573" s="1">
+      <c r="C573" s="4">
         <v>21.45</v>
       </c>
       <c r="D573" s="1" t="s">
@@ -40428,7 +40428,7 @@
       <c r="B574">
         <v>3</v>
       </c>
-      <c r="C574" s="1">
+      <c r="C574" s="4">
         <v>35.950000000000003</v>
       </c>
       <c r="D574" s="1" t="s">
@@ -40480,7 +40480,7 @@
       <c r="B575">
         <v>4</v>
       </c>
-      <c r="C575" s="1">
+      <c r="C575" s="4">
         <v>31.45</v>
       </c>
       <c r="D575" s="1" t="s">
@@ -40532,7 +40532,7 @@
       <c r="B576">
         <v>5</v>
       </c>
-      <c r="C576" s="1">
+      <c r="C576" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="D576" s="1" t="s">
@@ -40584,7 +40584,7 @@
       <c r="B577">
         <v>6</v>
       </c>
-      <c r="C577" s="1">
+      <c r="C577" s="4">
         <v>19.350000000000001</v>
       </c>
       <c r="D577" s="1" t="s">
@@ -40636,7 +40636,7 @@
       <c r="B578">
         <v>7</v>
       </c>
-      <c r="C578" s="1">
+      <c r="C578" s="4">
         <v>26.99</v>
       </c>
       <c r="D578" s="1" t="s">
@@ -40688,7 +40688,7 @@
       <c r="B579">
         <v>8</v>
       </c>
-      <c r="C579" s="1">
+      <c r="C579" s="4">
         <v>14.85</v>
       </c>
       <c r="D579" s="1" t="s">
@@ -40740,7 +40740,7 @@
       <c r="B580">
         <v>9</v>
       </c>
-      <c r="C580" s="1">
+      <c r="C580" s="4">
         <v>26.45</v>
       </c>
       <c r="D580" s="1" t="s">
@@ -40792,7 +40792,7 @@
       <c r="B581">
         <v>10</v>
       </c>
-      <c r="C581" s="1">
+      <c r="C581" s="4">
         <v>26.99</v>
       </c>
       <c r="D581" s="1" t="s">
@@ -40844,7 +40844,7 @@
       <c r="B582">
         <v>11</v>
       </c>
-      <c r="C582" s="1">
+      <c r="C582" s="4">
         <v>9.99</v>
       </c>
       <c r="D582" s="1" t="s">
@@ -40896,7 +40896,7 @@
       <c r="B583">
         <v>0</v>
       </c>
-      <c r="C583" s="1">
+      <c r="C583" s="4">
         <v>9.99</v>
       </c>
       <c r="D583" s="1" t="s">
@@ -40948,7 +40948,7 @@
       <c r="B584">
         <v>1</v>
       </c>
-      <c r="C584" s="1">
+      <c r="C584" s="4">
         <v>28.45</v>
       </c>
       <c r="D584" s="1" t="s">
@@ -41000,7 +41000,7 @@
       <c r="B585">
         <v>2</v>
       </c>
-      <c r="C585" s="1">
+      <c r="C585" s="4">
         <v>22.99</v>
       </c>
       <c r="D585" s="1" t="s">
@@ -41052,7 +41052,7 @@
       <c r="B586">
         <v>3</v>
       </c>
-      <c r="C586" s="1">
+      <c r="C586" s="4">
         <v>9.99</v>
       </c>
       <c r="D586" s="1" t="s">
@@ -41104,7 +41104,7 @@
       <c r="B587">
         <v>4</v>
       </c>
-      <c r="C587" s="1">
+      <c r="C587" s="4">
         <v>8.4499999999999993</v>
       </c>
       <c r="D587" s="1" t="s">
@@ -41156,7 +41156,7 @@
       <c r="B588">
         <v>5</v>
       </c>
-      <c r="C588" s="1">
+      <c r="C588" s="4">
         <v>9.99</v>
       </c>
       <c r="D588" s="1" t="s">
@@ -41208,7 +41208,7 @@
       <c r="B589">
         <v>6</v>
       </c>
-      <c r="C589" s="1">
+      <c r="C589" s="4">
         <v>8.65</v>
       </c>
       <c r="D589" s="1" t="s">
@@ -41260,7 +41260,7 @@
       <c r="B590">
         <v>7</v>
       </c>
-      <c r="C590" s="1">
+      <c r="C590" s="4">
         <v>9.9499999999999993</v>
       </c>
       <c r="D590" s="1" t="s">
@@ -41312,7 +41312,7 @@
       <c r="B591">
         <v>8</v>
       </c>
-      <c r="C591" s="1">
+      <c r="C591" s="4">
         <v>15.2</v>
       </c>
       <c r="D591" s="1" t="s">
@@ -41364,7 +41364,7 @@
       <c r="B592">
         <v>9</v>
       </c>
-      <c r="C592" s="1">
+      <c r="C592" s="4">
         <v>35.950000000000003</v>
       </c>
       <c r="D592" s="1" t="s">
@@ -41416,7 +41416,7 @@
       <c r="B593">
         <v>10</v>
       </c>
-      <c r="C593" s="1">
+      <c r="C593" s="4">
         <v>85.6</v>
       </c>
       <c r="D593" s="1" t="s">
@@ -41468,7 +41468,7 @@
       <c r="B594">
         <v>11</v>
       </c>
-      <c r="C594" s="1">
+      <c r="C594" s="4">
         <v>36.700000000000003</v>
       </c>
       <c r="D594" s="1" t="s">
@@ -41520,7 +41520,7 @@
       <c r="B595">
         <v>0</v>
       </c>
-      <c r="C595" s="1">
+      <c r="C595" s="4">
         <v>45.1</v>
       </c>
       <c r="D595" s="1" t="s">
@@ -41572,7 +41572,7 @@
       <c r="B596">
         <v>1</v>
       </c>
-      <c r="C596" s="1">
+      <c r="C596" s="4">
         <v>52.45</v>
       </c>
       <c r="D596" s="1" t="s">
@@ -41624,7 +41624,7 @@
       <c r="B597">
         <v>0</v>
       </c>
-      <c r="C597" s="1">
+      <c r="C597" s="4">
         <v>40.799999999999997</v>
       </c>
       <c r="D597" s="1" t="s">
@@ -41676,7 +41676,7 @@
       <c r="B598">
         <v>1</v>
       </c>
-      <c r="C598" s="1">
+      <c r="C598" s="4">
         <v>148.80000000000001</v>
       </c>
       <c r="D598" s="1" t="s">
@@ -41728,7 +41728,7 @@
       <c r="B599">
         <v>2</v>
       </c>
-      <c r="C599" s="1">
+      <c r="C599" s="4">
         <v>148.80000000000001</v>
       </c>
       <c r="D599" s="1" t="s">
@@ -41780,7 +41780,7 @@
       <c r="B600">
         <v>3</v>
       </c>
-      <c r="C600" s="1">
+      <c r="C600" s="4">
         <v>8.99</v>
       </c>
       <c r="D600" s="1" t="s">
@@ -41832,7 +41832,7 @@
       <c r="B601">
         <v>4</v>
       </c>
-      <c r="C601" s="1">
+      <c r="C601" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D601" s="1" t="s">
@@ -41884,7 +41884,7 @@
       <c r="B602">
         <v>5</v>
       </c>
-      <c r="C602" s="1">
+      <c r="C602" s="4">
         <v>28.25</v>
       </c>
       <c r="D602" s="1" t="s">
@@ -41936,7 +41936,7 @@
       <c r="B603">
         <v>6</v>
       </c>
-      <c r="C603" s="1">
+      <c r="C603" s="4">
         <v>8.5</v>
       </c>
       <c r="D603" s="1" t="s">
@@ -41988,7 +41988,7 @@
       <c r="B604">
         <v>7</v>
       </c>
-      <c r="C604" s="1">
+      <c r="C604" s="4">
         <v>15.99</v>
       </c>
       <c r="D604" s="1" t="s">
@@ -42040,7 +42040,7 @@
       <c r="B605">
         <v>8</v>
       </c>
-      <c r="C605" s="1">
+      <c r="C605" s="4">
         <v>11.45</v>
       </c>
       <c r="D605" s="1" t="s">
@@ -42092,7 +42092,7 @@
       <c r="B606">
         <v>9</v>
       </c>
-      <c r="C606" s="1">
+      <c r="C606" s="4">
         <v>34.450000000000003</v>
       </c>
       <c r="D606" s="1" t="s">
@@ -42144,7 +42144,7 @@
       <c r="B607">
         <v>10</v>
       </c>
-      <c r="C607" s="1">
+      <c r="C607" s="4">
         <v>34.25</v>
       </c>
       <c r="D607" s="1" t="s">
@@ -42196,7 +42196,7 @@
       <c r="B608">
         <v>11</v>
       </c>
-      <c r="C608" s="1">
+      <c r="C608" s="4">
         <v>17.989999999999998</v>
       </c>
       <c r="D608" s="1" t="s">
@@ -42248,7 +42248,7 @@
       <c r="B609">
         <v>0</v>
       </c>
-      <c r="C609" s="1">
+      <c r="C609" s="4">
         <v>29.45</v>
       </c>
       <c r="D609" s="1" t="s">
@@ -42300,7 +42300,7 @@
       <c r="B610">
         <v>1</v>
       </c>
-      <c r="C610" s="1">
+      <c r="C610" s="4">
         <v>26.99</v>
       </c>
       <c r="D610" s="1" t="s">
@@ -42352,7 +42352,7 @@
       <c r="B611">
         <v>2</v>
       </c>
-      <c r="C611" s="1">
+      <c r="C611" s="4">
         <v>17.989999999999998</v>
       </c>
       <c r="D611" s="1" t="s">
@@ -42404,7 +42404,7 @@
       <c r="B612">
         <v>3</v>
       </c>
-      <c r="C612" s="1">
+      <c r="C612" s="4">
         <v>29.99</v>
       </c>
       <c r="D612" s="1" t="s">
@@ -42456,7 +42456,7 @@
       <c r="B613">
         <v>4</v>
       </c>
-      <c r="C613" s="1">
+      <c r="C613" s="4">
         <v>38</v>
       </c>
       <c r="D613" s="1" t="s">
@@ -42508,7 +42508,7 @@
       <c r="B614">
         <v>5</v>
       </c>
-      <c r="C614" s="1">
+      <c r="C614" s="4">
         <v>49.99</v>
       </c>
       <c r="D614" s="1" t="s">
@@ -42560,7 +42560,7 @@
       <c r="B615">
         <v>6</v>
       </c>
-      <c r="C615" s="1">
+      <c r="C615" s="4">
         <v>56.99</v>
       </c>
       <c r="D615" s="1" t="s">
@@ -42612,7 +42612,7 @@
       <c r="B616">
         <v>7</v>
       </c>
-      <c r="C616" s="1">
+      <c r="C616" s="4">
         <v>61.99</v>
       </c>
       <c r="D616" s="1" t="s">
@@ -42664,7 +42664,7 @@
       <c r="B617">
         <v>8</v>
       </c>
-      <c r="C617" s="1">
+      <c r="C617" s="4">
         <v>21.99</v>
       </c>
       <c r="D617" s="1" t="s">
@@ -42716,7 +42716,7 @@
       <c r="B618">
         <v>9</v>
       </c>
-      <c r="C618" s="1">
+      <c r="C618" s="4">
         <v>14.3</v>
       </c>
       <c r="D618" s="1" t="s">
@@ -42768,7 +42768,7 @@
       <c r="B619">
         <v>10</v>
       </c>
-      <c r="C619" s="3">
+      <c r="C619" s="4">
         <v>2013</v>
       </c>
       <c r="D619" s="1" t="s">
@@ -42820,7 +42820,7 @@
       <c r="B620">
         <v>11</v>
       </c>
-      <c r="C620" s="1">
+      <c r="C620" s="4">
         <v>17.100000000000001</v>
       </c>
       <c r="D620" s="1" t="s">
@@ -42872,7 +42872,7 @@
       <c r="B621">
         <v>0</v>
       </c>
-      <c r="C621" s="1">
+      <c r="C621" s="4">
         <v>18.45</v>
       </c>
       <c r="D621" s="1" t="s">
@@ -42924,7 +42924,7 @@
       <c r="B622">
         <v>1</v>
       </c>
-      <c r="C622" s="1">
+      <c r="C622" s="4">
         <v>22.45</v>
       </c>
       <c r="D622" s="1" t="s">
@@ -42976,7 +42976,7 @@
       <c r="B623">
         <v>2</v>
       </c>
-      <c r="C623" s="1">
+      <c r="C623" s="4">
         <v>26.99</v>
       </c>
       <c r="D623" s="1" t="s">
@@ -43028,7 +43028,7 @@
       <c r="B624">
         <v>3</v>
       </c>
-      <c r="C624" s="1">
+      <c r="C624" s="4">
         <v>87.25</v>
       </c>
       <c r="D624" s="1" t="s">
@@ -43080,7 +43080,7 @@
       <c r="B625">
         <v>4</v>
       </c>
-      <c r="C625" s="1">
+      <c r="C625" s="4">
         <v>15.55</v>
       </c>
       <c r="D625" s="1" t="s">
@@ -43132,7 +43132,7 @@
       <c r="B626">
         <v>5</v>
       </c>
-      <c r="C626" s="1">
+      <c r="C626" s="4">
         <v>19.25</v>
       </c>
       <c r="D626" s="1" t="s">
@@ -43184,7 +43184,7 @@
       <c r="B627">
         <v>6</v>
       </c>
-      <c r="C627" s="1">
+      <c r="C627" s="4">
         <v>9.5500000000000007</v>
       </c>
       <c r="D627" s="1" t="s">
@@ -43236,7 +43236,7 @@
       <c r="B628">
         <v>7</v>
       </c>
-      <c r="C628" s="1">
+      <c r="C628" s="4">
         <v>5.35</v>
       </c>
       <c r="D628" s="1" t="s">
@@ -43288,7 +43288,7 @@
       <c r="B629">
         <v>8</v>
       </c>
-      <c r="C629" s="1">
+      <c r="C629" s="4">
         <v>5.9</v>
       </c>
       <c r="D629" s="1" t="s">
@@ -43340,7 +43340,7 @@
       <c r="B630">
         <v>9</v>
       </c>
-      <c r="C630" s="1">
+      <c r="C630" s="4">
         <v>18.3</v>
       </c>
       <c r="D630" s="1" t="s">
@@ -43392,7 +43392,7 @@
       <c r="B631">
         <v>10</v>
       </c>
-      <c r="C631" s="1">
+      <c r="C631" s="4">
         <v>12.05</v>
       </c>
       <c r="D631" s="1" t="s">
@@ -43444,7 +43444,7 @@
       <c r="B632">
         <v>11</v>
       </c>
-      <c r="C632" s="1">
+      <c r="C632" s="4">
         <v>11.9</v>
       </c>
       <c r="D632" s="1" t="s">
@@ -43496,7 +43496,7 @@
       <c r="B633">
         <v>0</v>
       </c>
-      <c r="C633" s="1">
+      <c r="C633" s="4">
         <v>14</v>
       </c>
       <c r="D633" s="1" t="s">
@@ -43548,7 +43548,7 @@
       <c r="B634">
         <v>1</v>
       </c>
-      <c r="C634" s="1">
+      <c r="C634" s="4">
         <v>12.05</v>
       </c>
       <c r="D634" s="1" t="s">
@@ -43600,7 +43600,7 @@
       <c r="B635">
         <v>2</v>
       </c>
-      <c r="C635" s="1">
+      <c r="C635" s="4">
         <v>13.5</v>
       </c>
       <c r="D635" s="1" t="s">
@@ -43652,7 +43652,7 @@
       <c r="B636">
         <v>3</v>
       </c>
-      <c r="C636" s="1">
+      <c r="C636" s="4">
         <v>16.399999999999999</v>
       </c>
       <c r="D636" s="1" t="s">
@@ -43704,7 +43704,7 @@
       <c r="B637">
         <v>4</v>
       </c>
-      <c r="C637" s="1">
+      <c r="C637" s="4">
         <v>14.25</v>
       </c>
       <c r="D637" s="1" t="s">
@@ -43756,7 +43756,7 @@
       <c r="B638">
         <v>5</v>
       </c>
-      <c r="C638" s="1">
+      <c r="C638" s="4">
         <v>26.2</v>
       </c>
       <c r="D638" s="1" t="s">
@@ -43808,7 +43808,7 @@
       <c r="B639">
         <v>6</v>
       </c>
-      <c r="C639" s="1">
+      <c r="C639" s="4">
         <v>25.75</v>
       </c>
       <c r="D639" s="1" t="s">
@@ -43860,7 +43860,7 @@
       <c r="B640">
         <v>7</v>
       </c>
-      <c r="C640" s="1">
+      <c r="C640" s="4">
         <v>11.99</v>
       </c>
       <c r="D640" s="1" t="s">
@@ -43912,7 +43912,7 @@
       <c r="B641">
         <v>8</v>
       </c>
-      <c r="C641" s="1">
+      <c r="C641" s="4">
         <v>15.1</v>
       </c>
       <c r="D641" s="1" t="s">
@@ -43964,7 +43964,7 @@
       <c r="B642">
         <v>9</v>
       </c>
-      <c r="C642" s="1">
+      <c r="C642" s="4">
         <v>24.45</v>
       </c>
       <c r="D642" s="1" t="s">
@@ -44016,7 +44016,7 @@
       <c r="B643">
         <v>10</v>
       </c>
-      <c r="C643" s="1">
+      <c r="C643" s="4">
         <v>20.65</v>
       </c>
       <c r="D643" s="1" t="s">
@@ -44068,7 +44068,7 @@
       <c r="B644">
         <v>11</v>
       </c>
-      <c r="C644" s="1">
+      <c r="C644" s="4">
         <v>14.99</v>
       </c>
       <c r="D644" s="1" t="s">
@@ -44120,7 +44120,7 @@
       <c r="B645">
         <v>0</v>
       </c>
-      <c r="C645" s="1">
+      <c r="C645" s="4">
         <v>24.45</v>
       </c>
       <c r="D645" s="1" t="s">
@@ -44172,7 +44172,7 @@
       <c r="B646">
         <v>1</v>
       </c>
-      <c r="C646" s="1">
+      <c r="C646" s="4">
         <v>6.2</v>
       </c>
       <c r="D646" s="1" t="s">
@@ -44224,7 +44224,7 @@
       <c r="B647">
         <v>2</v>
       </c>
-      <c r="C647" s="1">
+      <c r="C647" s="4">
         <v>23.65</v>
       </c>
       <c r="D647" s="1" t="s">
@@ -44276,7 +44276,7 @@
       <c r="B648">
         <v>3</v>
       </c>
-      <c r="C648" s="1">
+      <c r="C648" s="4">
         <v>77.650000000000006</v>
       </c>
       <c r="D648" s="1" t="s">
@@ -44328,7 +44328,7 @@
       <c r="B649">
         <v>4</v>
       </c>
-      <c r="C649" s="1">
+      <c r="C649" s="4">
         <v>52.4</v>
       </c>
       <c r="D649" s="1" t="s">
@@ -44380,7 +44380,7 @@
       <c r="B650">
         <v>5</v>
       </c>
-      <c r="C650" s="1">
+      <c r="C650" s="4">
         <v>39</v>
       </c>
       <c r="D650" s="1" t="s">
@@ -44432,7 +44432,7 @@
       <c r="B651">
         <v>6</v>
       </c>
-      <c r="C651" s="1">
+      <c r="C651" s="4">
         <v>63.45</v>
       </c>
       <c r="D651" s="1" t="s">
@@ -44484,7 +44484,7 @@
       <c r="B652">
         <v>7</v>
       </c>
-      <c r="C652" s="1">
+      <c r="C652" s="4">
         <v>47.05</v>
       </c>
       <c r="D652" s="1" t="s">
@@ -44536,7 +44536,7 @@
       <c r="B653">
         <v>8</v>
       </c>
-      <c r="C653" s="1">
+      <c r="C653" s="4">
         <v>15.75</v>
       </c>
       <c r="D653" s="1" t="s">
@@ -44588,7 +44588,7 @@
       <c r="B654">
         <v>9</v>
       </c>
-      <c r="C654" s="1">
+      <c r="C654" s="4">
         <v>13.8</v>
       </c>
       <c r="D654" s="1" t="s">
@@ -44640,7 +44640,7 @@
       <c r="B655">
         <v>10</v>
       </c>
-      <c r="C655" s="1">
+      <c r="C655" s="4">
         <v>16.100000000000001</v>
       </c>
       <c r="D655" s="1" t="s">
@@ -44692,7 +44692,7 @@
       <c r="B656">
         <v>11</v>
       </c>
-      <c r="C656" s="1">
+      <c r="C656" s="4">
         <v>16.100000000000001</v>
       </c>
       <c r="D656" s="1" t="s">
@@ -44744,7 +44744,7 @@
       <c r="B657">
         <v>0</v>
       </c>
-      <c r="C657" s="1">
+      <c r="C657" s="4">
         <v>15.65</v>
       </c>
       <c r="D657" s="1" t="s">
@@ -44796,7 +44796,7 @@
       <c r="B658">
         <v>1</v>
       </c>
-      <c r="C658" s="1">
+      <c r="C658" s="4">
         <v>23.4</v>
       </c>
       <c r="D658" s="1" t="s">
@@ -44848,7 +44848,7 @@
       <c r="B659">
         <v>2</v>
       </c>
-      <c r="C659" s="1">
+      <c r="C659" s="4">
         <v>13.85</v>
       </c>
       <c r="D659" s="1" t="s">
@@ -44900,7 +44900,7 @@
       <c r="B660">
         <v>3</v>
       </c>
-      <c r="C660" s="1">
+      <c r="C660" s="4">
         <v>16.989999999999998</v>
       </c>
       <c r="D660" s="1" t="s">
@@ -44952,7 +44952,7 @@
       <c r="B661">
         <v>4</v>
       </c>
-      <c r="C661" s="1">
+      <c r="C661" s="4">
         <v>12.45</v>
       </c>
       <c r="D661" s="1" t="s">
@@ -45004,7 +45004,7 @@
       <c r="B662">
         <v>5</v>
       </c>
-      <c r="C662" s="1">
+      <c r="C662" s="4">
         <v>19.8</v>
       </c>
       <c r="D662" s="1" t="s">
@@ -45056,7 +45056,7 @@
       <c r="B663">
         <v>6</v>
       </c>
-      <c r="C663" s="1">
+      <c r="C663" s="4">
         <v>19.95</v>
       </c>
       <c r="D663" s="1" t="s">
@@ -45108,7 +45108,7 @@
       <c r="B664">
         <v>7</v>
       </c>
-      <c r="C664" s="1">
+      <c r="C664" s="4">
         <v>9.4499999999999993</v>
       </c>
       <c r="D664" s="1" t="s">
@@ -45160,7 +45160,7 @@
       <c r="B665">
         <v>8</v>
       </c>
-      <c r="C665" s="1">
+      <c r="C665" s="4">
         <v>9.25</v>
       </c>
       <c r="D665" s="1" t="s">
@@ -45212,7 +45212,7 @@
       <c r="B666">
         <v>9</v>
       </c>
-      <c r="C666" s="1">
+      <c r="C666" s="4">
         <v>40.6</v>
       </c>
       <c r="D666" s="1" t="s">
@@ -45264,7 +45264,7 @@
       <c r="B667">
         <v>10</v>
       </c>
-      <c r="C667" s="1">
+      <c r="C667" s="4">
         <v>22</v>
       </c>
       <c r="D667" s="1" t="s">
@@ -45316,7 +45316,7 @@
       <c r="B668">
         <v>11</v>
       </c>
-      <c r="C668" s="1">
+      <c r="C668" s="4">
         <v>11.25</v>
       </c>
       <c r="D668" s="1" t="s">
@@ -45368,7 +45368,7 @@
       <c r="B669">
         <v>0</v>
       </c>
-      <c r="C669" s="1">
+      <c r="C669" s="4">
         <v>12.1</v>
       </c>
       <c r="D669" s="1" t="s">
@@ -45420,7 +45420,7 @@
       <c r="B670">
         <v>1</v>
       </c>
-      <c r="C670" s="1">
+      <c r="C670" s="4">
         <v>16.2</v>
       </c>
       <c r="D670" s="1" t="s">
@@ -45472,7 +45472,7 @@
       <c r="B671">
         <v>2</v>
       </c>
-      <c r="C671" s="1">
+      <c r="C671" s="4">
         <v>18.989999999999998</v>
       </c>
       <c r="D671" s="1" t="s">
@@ -45524,7 +45524,7 @@
       <c r="B672">
         <v>3</v>
       </c>
-      <c r="C672" s="1">
+      <c r="C672" s="4">
         <v>13.75</v>
       </c>
       <c r="D672" s="1" t="s">
@@ -45576,7 +45576,7 @@
       <c r="B673">
         <v>4</v>
       </c>
-      <c r="C673" s="1">
+      <c r="C673" s="4">
         <v>13.8</v>
       </c>
       <c r="D673" s="1" t="s">
@@ -45628,7 +45628,7 @@
       <c r="B674">
         <v>5</v>
       </c>
-      <c r="C674" s="1">
+      <c r="C674" s="4">
         <v>17.3</v>
       </c>
       <c r="D674" s="1" t="s">
@@ -45680,7 +45680,7 @@
       <c r="B675">
         <v>6</v>
       </c>
-      <c r="C675" s="1">
+      <c r="C675" s="4">
         <v>12.8</v>
       </c>
       <c r="D675" s="1" t="s">
@@ -45732,7 +45732,7 @@
       <c r="B676">
         <v>7</v>
       </c>
-      <c r="C676" s="1">
+      <c r="C676" s="4">
         <v>43</v>
       </c>
       <c r="D676" s="1" t="s">
@@ -45784,7 +45784,7 @@
       <c r="B677">
         <v>8</v>
       </c>
-      <c r="C677" s="1">
+      <c r="C677" s="4">
         <v>26</v>
       </c>
       <c r="D677" s="1" t="s">
@@ -45836,7 +45836,7 @@
       <c r="B678">
         <v>9</v>
       </c>
-      <c r="C678" s="1">
+      <c r="C678" s="4">
         <v>12.8</v>
       </c>
       <c r="D678" s="1" t="s">
@@ -45888,7 +45888,7 @@
       <c r="B679">
         <v>10</v>
       </c>
-      <c r="C679" s="1">
+      <c r="C679" s="4">
         <v>21.85</v>
       </c>
       <c r="D679" s="1" t="s">
@@ -45940,7 +45940,7 @@
       <c r="B680">
         <v>11</v>
       </c>
-      <c r="C680" s="1">
+      <c r="C680" s="4">
         <v>38.549999999999997</v>
       </c>
       <c r="D680" s="1" t="s">
@@ -45992,7 +45992,7 @@
       <c r="B681">
         <v>0</v>
       </c>
-      <c r="C681" s="1">
+      <c r="C681" s="4">
         <v>8.4</v>
       </c>
       <c r="D681" s="1" t="s">
@@ -46044,7 +46044,7 @@
       <c r="B682">
         <v>1</v>
       </c>
-      <c r="C682" s="1">
+      <c r="C682" s="4">
         <v>85.05</v>
       </c>
       <c r="D682" s="1" t="s">
@@ -46096,7 +46096,7 @@
       <c r="B683">
         <v>2</v>
       </c>
-      <c r="C683" s="1">
+      <c r="C683" s="4">
         <v>12.55</v>
       </c>
       <c r="D683" s="1" t="s">
@@ -46148,7 +46148,7 @@
       <c r="B684">
         <v>3</v>
       </c>
-      <c r="C684" s="1">
+      <c r="C684" s="4">
         <v>250</v>
       </c>
       <c r="D684" s="1" t="s">
@@ -46200,7 +46200,7 @@
       <c r="B685">
         <v>4</v>
       </c>
-      <c r="C685" s="1">
+      <c r="C685" s="4">
         <v>22</v>
       </c>
       <c r="D685" s="1" t="s">
@@ -46252,7 +46252,7 @@
       <c r="B686">
         <v>5</v>
       </c>
-      <c r="C686" s="1">
+      <c r="C686" s="4">
         <v>18</v>
       </c>
       <c r="D686" s="1" t="s">
@@ -46304,7 +46304,7 @@
       <c r="B687">
         <v>6</v>
       </c>
-      <c r="C687" s="1">
+      <c r="C687" s="4">
         <v>19.600000000000001</v>
       </c>
       <c r="D687" s="1" t="s">
@@ -46356,7 +46356,7 @@
       <c r="B688">
         <v>7</v>
       </c>
-      <c r="C688" s="1">
+      <c r="C688" s="4">
         <v>21.2</v>
       </c>
       <c r="D688" s="1" t="s">
@@ -46408,7 +46408,7 @@
       <c r="B689">
         <v>8</v>
       </c>
-      <c r="C689" s="1">
+      <c r="C689" s="4">
         <v>13.65</v>
       </c>
       <c r="D689" s="1" t="s">
@@ -46460,7 +46460,7 @@
       <c r="B690">
         <v>9</v>
       </c>
-      <c r="C690" s="1">
+      <c r="C690" s="4">
         <v>22.15</v>
       </c>
       <c r="D690" s="1" t="s">
@@ -46512,7 +46512,7 @@
       <c r="B691">
         <v>10</v>
       </c>
-      <c r="C691" s="1">
+      <c r="C691" s="4">
         <v>16.5</v>
       </c>
       <c r="D691" s="1" t="s">
@@ -46564,7 +46564,7 @@
       <c r="B692">
         <v>11</v>
       </c>
-      <c r="C692" s="1">
+      <c r="C692" s="4">
         <v>19.989999999999998</v>
       </c>
       <c r="D692" s="1" t="s">
@@ -46616,7 +46616,7 @@
       <c r="B693">
         <v>0</v>
       </c>
-      <c r="C693" s="1">
+      <c r="C693" s="4">
         <v>13.6</v>
       </c>
       <c r="D693" s="1" t="s">
@@ -46668,7 +46668,7 @@
       <c r="B694">
         <v>1</v>
       </c>
-      <c r="C694" s="1">
+      <c r="C694" s="4">
         <v>28.7</v>
       </c>
       <c r="D694" s="1" t="s">
@@ -46720,7 +46720,7 @@
       <c r="B695">
         <v>2</v>
       </c>
-      <c r="C695" s="1">
+      <c r="C695" s="4">
         <v>8.1999999999999993</v>
       </c>
       <c r="D695" s="1" t="s">
@@ -46772,7 +46772,7 @@
       <c r="B696">
         <v>3</v>
       </c>
-      <c r="C696" s="1">
+      <c r="C696" s="4">
         <v>5.35</v>
       </c>
       <c r="D696" s="1" t="s">
@@ -46824,7 +46824,7 @@
       <c r="B697">
         <v>4</v>
       </c>
-      <c r="C697" s="1">
+      <c r="C697" s="4">
         <v>34</v>
       </c>
       <c r="D697" s="1" t="s">
@@ -46876,7 +46876,7 @@
       <c r="B698">
         <v>5</v>
       </c>
-      <c r="C698" s="1">
+      <c r="C698" s="4">
         <v>29.1</v>
       </c>
       <c r="D698" s="1" t="s">
@@ -46928,7 +46928,7 @@
       <c r="B699">
         <v>6</v>
       </c>
-      <c r="C699" s="1">
+      <c r="C699" s="4">
         <v>33.299999999999997</v>
       </c>
       <c r="D699" s="1" t="s">
@@ -46980,7 +46980,7 @@
       <c r="B700">
         <v>7</v>
       </c>
-      <c r="C700" s="1">
+      <c r="C700" s="4">
         <v>13.3</v>
       </c>
       <c r="D700" s="1" t="s">
@@ -47032,7 +47032,7 @@
       <c r="B701">
         <v>8</v>
       </c>
-      <c r="C701" s="1">
+      <c r="C701" s="4">
         <v>11.2</v>
       </c>
       <c r="D701" s="1" t="s">
@@ -47084,7 +47084,7 @@
       <c r="B702">
         <v>9</v>
       </c>
-      <c r="C702" s="1">
+      <c r="C702" s="4">
         <v>27.75</v>
       </c>
       <c r="D702" s="1" t="s">
@@ -47136,7 +47136,7 @@
       <c r="B703">
         <v>10</v>
       </c>
-      <c r="C703" s="1">
+      <c r="C703" s="4">
         <v>26.99</v>
       </c>
       <c r="D703" s="1" t="s">
@@ -47188,7 +47188,7 @@
       <c r="B704">
         <v>11</v>
       </c>
-      <c r="C704" s="1">
+      <c r="C704" s="4">
         <v>66.05</v>
       </c>
       <c r="D704" s="1" t="s">
@@ -47240,7 +47240,7 @@
       <c r="B705">
         <v>0</v>
       </c>
-      <c r="C705" s="1">
+      <c r="C705" s="4">
         <v>16.45</v>
       </c>
       <c r="D705" s="1" t="s">
@@ -47292,7 +47292,7 @@
       <c r="B706">
         <v>1</v>
       </c>
-      <c r="C706" s="1">
+      <c r="C706" s="4">
         <v>104.6</v>
       </c>
       <c r="D706" s="1" t="s">
@@ -47344,7 +47344,7 @@
       <c r="B707">
         <v>0</v>
       </c>
-      <c r="C707" s="1">
+      <c r="C707" s="4">
         <v>9.9</v>
       </c>
       <c r="D707" s="1" t="s">
@@ -47396,7 +47396,7 @@
       <c r="B708">
         <v>1</v>
       </c>
-      <c r="C708" s="1">
+      <c r="C708" s="4">
         <v>12.7</v>
       </c>
       <c r="D708" s="1" t="s">
@@ -47448,7 +47448,7 @@
       <c r="B709">
         <v>2</v>
       </c>
-      <c r="C709" s="1">
+      <c r="C709" s="4">
         <v>9.6</v>
       </c>
       <c r="D709" s="1" t="s">
@@ -47500,7 +47500,7 @@
       <c r="B710">
         <v>3</v>
       </c>
-      <c r="C710" s="1">
+      <c r="C710" s="4">
         <v>21.05</v>
       </c>
       <c r="D710" s="1" t="s">
@@ -47552,7 +47552,7 @@
       <c r="B711">
         <v>4</v>
       </c>
-      <c r="C711" s="1">
+      <c r="C711" s="4">
         <v>9.6</v>
       </c>
       <c r="D711" s="1" t="s">
@@ -47604,7 +47604,7 @@
       <c r="B712">
         <v>5</v>
       </c>
-      <c r="C712" s="1">
+      <c r="C712" s="4">
         <v>11.8</v>
       </c>
       <c r="D712" s="1" t="s">
@@ -47656,7 +47656,7 @@
       <c r="B713">
         <v>6</v>
       </c>
-      <c r="C713" s="1">
+      <c r="C713" s="4">
         <v>18</v>
       </c>
       <c r="D713" s="1" t="s">
@@ -47708,7 +47708,7 @@
       <c r="B714">
         <v>7</v>
       </c>
-      <c r="C714" s="1">
+      <c r="C714" s="4">
         <v>17.350000000000001</v>
       </c>
       <c r="D714" s="1" t="s">
@@ -47760,7 +47760,7 @@
       <c r="B715">
         <v>8</v>
       </c>
-      <c r="C715" s="1">
+      <c r="C715" s="4">
         <v>23.85</v>
       </c>
       <c r="D715" s="1" t="s">
@@ -47812,7 +47812,7 @@
       <c r="B716">
         <v>9</v>
       </c>
-      <c r="C716" s="1">
+      <c r="C716" s="4">
         <v>43.55</v>
       </c>
       <c r="D716" s="1" t="s">
@@ -47864,7 +47864,7 @@
       <c r="B717">
         <v>10</v>
       </c>
-      <c r="C717" s="1">
+      <c r="C717" s="4">
         <v>20.05</v>
       </c>
       <c r="D717" s="1" t="s">
@@ -47916,7 +47916,7 @@
       <c r="B718">
         <v>11</v>
       </c>
-      <c r="C718" s="1">
+      <c r="C718" s="4">
         <v>53.55</v>
       </c>
       <c r="D718" s="1" t="s">
@@ -47968,7 +47968,7 @@
       <c r="B719">
         <v>0</v>
       </c>
-      <c r="C719" s="1">
+      <c r="C719" s="4">
         <v>20.99</v>
       </c>
       <c r="D719" s="1" t="s">
@@ -48020,7 +48020,7 @@
       <c r="B720">
         <v>1</v>
       </c>
-      <c r="C720" s="1">
+      <c r="C720" s="4">
         <v>17.2</v>
       </c>
       <c r="D720" s="1" t="s">
@@ -48072,7 +48072,7 @@
       <c r="B721">
         <v>2</v>
       </c>
-      <c r="C721" s="1">
+      <c r="C721" s="4">
         <v>40.450000000000003</v>
       </c>
       <c r="D721" s="1" t="s">
@@ -48124,7 +48124,7 @@
       <c r="B722">
         <v>3</v>
       </c>
-      <c r="C722" s="1">
+      <c r="C722" s="4">
         <v>31.45</v>
       </c>
       <c r="D722" s="1" t="s">
@@ -48176,7 +48176,7 @@
       <c r="B723">
         <v>4</v>
       </c>
-      <c r="C723" s="1">
+      <c r="C723" s="4">
         <v>44.99</v>
       </c>
       <c r="D723" s="1" t="s">
@@ -48228,7 +48228,7 @@
       <c r="B724">
         <v>5</v>
       </c>
-      <c r="C724" s="1">
+      <c r="C724" s="4">
         <v>47.25</v>
       </c>
       <c r="D724" s="1" t="s">
@@ -48280,7 +48280,7 @@
       <c r="B725">
         <v>6</v>
       </c>
-      <c r="C725" s="1">
+      <c r="C725" s="4">
         <v>44.05</v>
       </c>
       <c r="D725" s="1" t="s">
@@ -48332,7 +48332,7 @@
       <c r="B726">
         <v>7</v>
       </c>
-      <c r="C726" s="1">
+      <c r="C726" s="4">
         <v>13.15</v>
       </c>
       <c r="D726" s="1" t="s">
@@ -48384,7 +48384,7 @@
       <c r="B727">
         <v>8</v>
       </c>
-      <c r="C727" s="1">
+      <c r="C727" s="4">
         <v>6.99</v>
       </c>
       <c r="D727" s="1" t="s">
@@ -48436,7 +48436,7 @@
       <c r="B728">
         <v>9</v>
       </c>
-      <c r="C728" s="1">
+      <c r="C728" s="4">
         <v>8.99</v>
       </c>
       <c r="D728" s="1" t="s">
@@ -48488,7 +48488,7 @@
       <c r="B729">
         <v>10</v>
       </c>
-      <c r="C729" s="1">
+      <c r="C729" s="4">
         <v>9.99</v>
       </c>
       <c r="D729" s="1" t="s">
@@ -48540,7 +48540,7 @@
       <c r="B730">
         <v>11</v>
       </c>
-      <c r="C730" s="1">
+      <c r="C730" s="4">
         <v>12.99</v>
       </c>
       <c r="D730" s="1" t="s">
@@ -48592,7 +48592,7 @@
       <c r="B731">
         <v>0</v>
       </c>
-      <c r="C731" s="1">
+      <c r="C731" s="4">
         <v>7.45</v>
       </c>
       <c r="D731" s="1" t="s">
@@ -48644,7 +48644,7 @@
       <c r="B732">
         <v>1</v>
       </c>
-      <c r="C732" s="1">
+      <c r="C732" s="4">
         <v>6.4</v>
       </c>
       <c r="D732" s="1" t="s">
@@ -48696,7 +48696,7 @@
       <c r="B733">
         <v>2</v>
       </c>
-      <c r="C733" s="1">
+      <c r="C733" s="4">
         <v>10.55</v>
       </c>
       <c r="D733" s="1" t="s">
@@ -48748,7 +48748,7 @@
       <c r="B734">
         <v>3</v>
       </c>
-      <c r="C734" s="1">
+      <c r="C734" s="4">
         <v>10.15</v>
       </c>
       <c r="D734" s="1" t="s">
@@ -48800,7 +48800,7 @@
       <c r="B735">
         <v>4</v>
       </c>
-      <c r="C735" s="1">
+      <c r="C735" s="4">
         <v>9.99</v>
       </c>
       <c r="D735" s="1" t="s">
@@ -48852,7 +48852,7 @@
       <c r="B736">
         <v>0</v>
       </c>
-      <c r="C736" s="1">
+      <c r="C736" s="4">
         <v>12.5</v>
       </c>
       <c r="D736" s="1" t="s">
@@ -48904,7 +48904,7 @@
       <c r="B737">
         <v>1</v>
       </c>
-      <c r="C737" s="1">
+      <c r="C737" s="4">
         <v>10.5</v>
       </c>
       <c r="D737" s="1" t="s">
@@ -48956,7 +48956,7 @@
       <c r="B738">
         <v>2</v>
       </c>
-      <c r="C738" s="1">
+      <c r="C738" s="4">
         <v>16.350000000000001</v>
       </c>
       <c r="D738" s="1" t="s">
@@ -49008,7 +49008,7 @@
       <c r="B739">
         <v>3</v>
       </c>
-      <c r="C739" s="1">
+      <c r="C739" s="4">
         <v>15.45</v>
       </c>
       <c r="D739" s="1" t="s">
@@ -49060,7 +49060,7 @@
       <c r="B740">
         <v>4</v>
       </c>
-      <c r="C740" s="1">
+      <c r="C740" s="4">
         <v>37.799999999999997</v>
       </c>
       <c r="D740" s="1" t="s">
@@ -49112,7 +49112,7 @@
       <c r="B741">
         <v>5</v>
       </c>
-      <c r="C741" s="1">
+      <c r="C741" s="4">
         <v>21.45</v>
       </c>
       <c r="D741" s="1" t="s">
@@ -49164,7 +49164,7 @@
       <c r="B742">
         <v>6</v>
       </c>
-      <c r="C742" s="1">
+      <c r="C742" s="4">
         <v>61</v>
       </c>
       <c r="D742" s="1" t="s">
@@ -49216,7 +49216,7 @@
       <c r="B743">
         <v>7</v>
       </c>
-      <c r="C743" s="1">
+      <c r="C743" s="4">
         <v>24.45</v>
       </c>
       <c r="D743" s="1" t="s">
@@ -49268,7 +49268,7 @@
       <c r="B744">
         <v>8</v>
       </c>
-      <c r="C744" s="1">
+      <c r="C744" s="4">
         <v>24.45</v>
       </c>
       <c r="D744" s="1" t="s">
@@ -49320,7 +49320,7 @@
       <c r="B745">
         <v>9</v>
       </c>
-      <c r="C745" s="1">
+      <c r="C745" s="4">
         <v>22.99</v>
       </c>
       <c r="D745" s="1" t="s">
@@ -49372,7 +49372,7 @@
       <c r="B746">
         <v>10</v>
       </c>
-      <c r="C746" s="1">
+      <c r="C746" s="4">
         <v>13.05</v>
       </c>
       <c r="D746" s="1" t="s">
@@ -49424,7 +49424,7 @@
       <c r="B747">
         <v>11</v>
       </c>
-      <c r="C747" s="1">
+      <c r="C747" s="4">
         <v>14.25</v>
       </c>
       <c r="D747" s="1" t="s">
@@ -49476,7 +49476,7 @@
       <c r="B748">
         <v>0</v>
       </c>
-      <c r="C748" s="1">
+      <c r="C748" s="4">
         <v>15.05</v>
       </c>
       <c r="D748" s="1" t="s">
@@ -49528,7 +49528,7 @@
       <c r="B749">
         <v>1</v>
       </c>
-      <c r="C749" s="1">
+      <c r="C749" s="4">
         <v>13.65</v>
       </c>
       <c r="D749" s="1" t="s">
@@ -49580,7 +49580,7 @@
       <c r="B750">
         <v>2</v>
       </c>
-      <c r="C750" s="1">
+      <c r="C750" s="4">
         <v>13.65</v>
       </c>
       <c r="D750" s="1" t="s">
@@ -49632,7 +49632,7 @@
       <c r="B751">
         <v>3</v>
       </c>
-      <c r="C751" s="1">
+      <c r="C751" s="4">
         <v>14.7</v>
       </c>
       <c r="D751" s="1" t="s">
@@ -49684,7 +49684,7 @@
       <c r="B752">
         <v>4</v>
       </c>
-      <c r="C752" s="1">
+      <c r="C752" s="4">
         <v>32.35</v>
       </c>
       <c r="D752" s="1" t="s">
@@ -49736,7 +49736,7 @@
       <c r="B753">
         <v>5</v>
       </c>
-      <c r="C753" s="1">
+      <c r="C753" s="4">
         <v>22.45</v>
       </c>
       <c r="D753" s="1" t="s">
@@ -49788,7 +49788,7 @@
       <c r="B754">
         <v>6</v>
       </c>
-      <c r="C754" s="1">
+      <c r="C754" s="4">
         <v>21.45</v>
       </c>
       <c r="D754" s="1" t="s">
@@ -49840,7 +49840,7 @@
       <c r="B755">
         <v>7</v>
       </c>
-      <c r="C755" s="1">
+      <c r="C755" s="4">
         <v>15.75</v>
       </c>
       <c r="D755" s="1" t="s">
@@ -49892,7 +49892,7 @@
       <c r="B756">
         <v>8</v>
       </c>
-      <c r="C756" s="1">
+      <c r="C756" s="4">
         <v>15.7</v>
       </c>
       <c r="D756" s="1" t="s">
@@ -49944,7 +49944,7 @@
       <c r="B757">
         <v>9</v>
       </c>
-      <c r="C757" s="1">
+      <c r="C757" s="4">
         <v>13.35</v>
       </c>
       <c r="D757" s="1" t="s">
@@ -49996,7 +49996,7 @@
       <c r="B758">
         <v>10</v>
       </c>
-      <c r="C758" s="1">
+      <c r="C758" s="4">
         <v>17.75</v>
       </c>
       <c r="D758" s="1" t="s">
@@ -50048,7 +50048,7 @@
       <c r="B759">
         <v>11</v>
       </c>
-      <c r="C759" s="1">
+      <c r="C759" s="4">
         <v>21.55</v>
       </c>
       <c r="D759" s="1" t="s">
@@ -50100,7 +50100,7 @@
       <c r="B760">
         <v>0</v>
       </c>
-      <c r="C760" s="1">
+      <c r="C760" s="4">
         <v>18.899999999999999</v>
       </c>
       <c r="D760" s="1" t="s">
@@ -50152,7 +50152,7 @@
       <c r="B761">
         <v>1</v>
       </c>
-      <c r="C761" s="1">
+      <c r="C761" s="4">
         <v>29.15</v>
       </c>
       <c r="D761" s="1" t="s">
@@ -50204,7 +50204,7 @@
       <c r="B762">
         <v>2</v>
       </c>
-      <c r="C762" s="1">
+      <c r="C762" s="4">
         <v>14.9</v>
       </c>
       <c r="D762" s="1" t="s">
@@ -50256,7 +50256,7 @@
       <c r="B763">
         <v>3</v>
       </c>
-      <c r="C763" s="1">
+      <c r="C763" s="4">
         <v>24.35</v>
       </c>
       <c r="D763" s="1" t="s">
@@ -50308,7 +50308,7 @@
       <c r="B764">
         <v>4</v>
       </c>
-      <c r="C764" s="1">
+      <c r="C764" s="4">
         <v>29.1</v>
       </c>
       <c r="D764" s="1" t="s">
@@ -50360,7 +50360,7 @@
       <c r="B765">
         <v>5</v>
       </c>
-      <c r="C765" s="1">
+      <c r="C765" s="4">
         <v>35.4</v>
       </c>
       <c r="D765" s="1" t="s">
@@ -50412,7 +50412,7 @@
       <c r="B766">
         <v>6</v>
       </c>
-      <c r="C766" s="1">
+      <c r="C766" s="4">
         <v>34.9</v>
       </c>
       <c r="D766" s="1" t="s">
@@ -50464,7 +50464,7 @@
       <c r="B767">
         <v>7</v>
       </c>
-      <c r="C767" s="1">
+      <c r="C767" s="4">
         <v>9</v>
       </c>
       <c r="D767" s="1" t="s">
@@ -50516,7 +50516,7 @@
       <c r="B768">
         <v>8</v>
       </c>
-      <c r="C768" s="1">
+      <c r="C768" s="4">
         <v>9</v>
       </c>
       <c r="D768" s="1" t="s">
